--- a/outputs/ML_Results/dist_commute/Lille.xlsx
+++ b/outputs/ML_Results/dist_commute/Lille.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ10165558" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ10524962" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ11089901" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ11537896" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ12154385" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ12747958" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ13316044" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ13865121" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ14446012" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ48358243" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ48698091" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ49093100" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ49514328" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ49917032" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ50292572" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ50681825" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ51096370" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ51478247" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11112.93552999117</v>
+        <v>11204.33835867115</v>
       </c>
       <c r="C2" t="n">
-        <v>8.737533688370424e-10</v>
+        <v>6.202141187776932e-10</v>
       </c>
     </row>
     <row r="3">
@@ -479,205 +479,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2241.888605224872</v>
+        <v>2388.97341768738</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003797909837020643</v>
+        <v>0.001825003067131115</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2723.211136539867</v>
+        <v>3533.650738528027</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000755652290080149</v>
+        <v>4.154123770076859e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3548.926516519614</v>
+        <v>-1415.378349144136</v>
       </c>
       <c r="C5" t="n">
-        <v>3.778075025134482e-06</v>
+        <v>0.4249513766258278</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1403.530739401084</v>
+        <v>79.28431248681558</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4288024347188912</v>
+        <v>0.3589424946819566</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85.2785125311416</v>
+        <v>-743.6841770002115</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3244193878520204</v>
+        <v>0.001338786778760602</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-759.384182196188</v>
+        <v>-51.71457384942713</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001071646069058289</v>
+        <v>5.537674328604763e-07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-50.21724108873578</v>
+        <v>331.9187013251633</v>
       </c>
       <c r="C9" t="n">
-        <v>1.34747802471119e-06</v>
+        <v>1.394916160809781e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>327.6167997079139</v>
+        <v>254.9783384283606</v>
       </c>
       <c r="C10" t="n">
-        <v>1.828675204676168e-05</v>
+        <v>5.039738154380739e-15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>258.6474602701436</v>
+        <v>0.09181481139360353</v>
       </c>
       <c r="C11" t="n">
-        <v>2.601180082462324e-15</v>
+        <v>0.2076877624404227</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.09417494005692338</v>
+        <v>-3.380922542211148e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1963421110234461</v>
+        <v>0.2580986321113014</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.596154003769271e-05</v>
+        <v>-36.91142866087921</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2296959085860787</v>
+        <v>0.0001706845592538614</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-36.62369840048206</v>
+        <v>-11.75524033415517</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001922396143133062</v>
+        <v>0.2824703978071534</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-11.82512231905072</v>
+        <v>-608.5558773230892</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2795823877377479</v>
+        <v>0.6689504958812171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-638.8954990866514</v>
+        <v>-3959.03132345125</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6535143333702149</v>
+        <v>0.0001077687170558216</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3982.562017036538</v>
+        <v>-2154.479163751312</v>
       </c>
       <c r="C17" t="n">
-        <v>9.815583806358329e-05</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-2074.04458865341</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3579456180015306</v>
+        <v>0.3394723722210135</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12446.02342930198</v>
+        <v>12508.83706199487</v>
       </c>
       <c r="C2" t="n">
-        <v>5.004568050532312e-12</v>
+        <v>3.888470382901643e-12</v>
       </c>
     </row>
     <row r="3">
@@ -736,205 +723,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2170.289214647761</v>
+        <v>2337.252333464379</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004791288523683518</v>
+        <v>0.002124332320524389</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2700.262110379384</v>
+        <v>3332.090233240718</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007557457203286707</v>
+        <v>1.203122461648075e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3343.855237792957</v>
+        <v>-1724.78608596253</v>
       </c>
       <c r="C5" t="n">
-        <v>1.119072085227407e-05</v>
+        <v>0.3188233148689651</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1720.289581659274</v>
+        <v>61.14290228588676</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3200204941149301</v>
+        <v>0.4803255546372219</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.35812076564167</v>
+        <v>-693.073341878426</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4440279879973625</v>
+        <v>0.00272929986681251</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-708.7228541688053</v>
+        <v>-49.55140575127403</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002203759188130586</v>
+        <v>1.224315548104099e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-48.25556808523059</v>
+        <v>408.1466215968223</v>
       </c>
       <c r="C9" t="n">
-        <v>2.507796317664951e-06</v>
+        <v>1.115535494784021e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>403.074251796163</v>
+        <v>268.1062810299844</v>
       </c>
       <c r="C10" t="n">
-        <v>1.638169239617098e-07</v>
+        <v>1.84645598981334e-16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>271.6128522606699</v>
+        <v>0.06886065223843942</v>
       </c>
       <c r="C11" t="n">
-        <v>9.082907991414439e-17</v>
+        <v>0.3423920401206563</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07029552762232394</v>
+        <v>-4.080106623589678e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3324090133070463</v>
+        <v>0.187572068189873</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.271987637479696e-05</v>
+        <v>-35.64698888368878</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1679984071814072</v>
+        <v>0.0002253314972929517</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-35.25229135489137</v>
+        <v>-24.2134400086324</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0002652821218535605</v>
+        <v>0.02682413483498566</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-24.30086264678206</v>
+        <v>-27.87881061553912</v>
       </c>
       <c r="C15" t="n">
-        <v>0.026261150525926</v>
+        <v>0.9840476399537379</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-102.3701112309639</v>
+        <v>-4261.008254345607</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9415044050714193</v>
+        <v>2.887384070243488e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4302.0425609617</v>
+        <v>-3192.952503057745</v>
       </c>
       <c r="C17" t="n">
-        <v>2.429222829565955e-05</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3088.593694737048</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1707525334606547</v>
+        <v>0.1565998213769743</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9727.689678705377</v>
+        <v>9854.621730644694</v>
       </c>
       <c r="C2" t="n">
-        <v>9.946269539581085e-08</v>
+        <v>6.630470577193377e-08</v>
       </c>
     </row>
     <row r="3">
@@ -993,205 +967,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1935.455356188326</v>
+        <v>2126.428487940415</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01423034529544562</v>
+        <v>0.00645999334949982</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2535.110188668803</v>
+        <v>3312.809159761723</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00201810291278183</v>
+        <v>2.243540803753218e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3332.734239720928</v>
+        <v>-1468.040800650754</v>
       </c>
       <c r="C5" t="n">
-        <v>1.999590538331142e-05</v>
+        <v>0.4224605776734313</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1465.806988629001</v>
+        <v>67.56820860059591</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4230718264419053</v>
+        <v>0.4337695402655949</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.87196721981465</v>
+        <v>-579.6081192498228</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3988079195420158</v>
+        <v>0.01337895973642574</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-601.4658443775303</v>
+        <v>-44.94959445987162</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01037901257718745</v>
+        <v>1.41424685649671e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-42.9907593637788</v>
+        <v>343.0367121749401</v>
       </c>
       <c r="C9" t="n">
-        <v>3.703166212026249e-05</v>
+        <v>4.919740153418592e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>336.4385626341921</v>
+        <v>235.7929537470933</v>
       </c>
       <c r="C10" t="n">
-        <v>7.648801178908734e-06</v>
+        <v>6.676135428788076e-13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.9904957017157</v>
+        <v>0.06421951601077278</v>
       </c>
       <c r="C11" t="n">
-        <v>2.395209142597692e-13</v>
+        <v>0.3793354960121383</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.06646677871223389</v>
+        <v>-9.878058115875071e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3628742942219331</v>
+        <v>0.00184072180518088</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001006524382164131</v>
+        <v>-26.44677917975604</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001512583536175252</v>
+        <v>0.006913377589190828</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-25.97016209098084</v>
+        <v>-6.448912889877279</v>
       </c>
       <c r="C14" t="n">
-        <v>0.008009109863293685</v>
+        <v>0.5651606806147952</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6.507594791553054</v>
+        <v>2198.200262681417</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5615485562772027</v>
+        <v>0.1205797339783782</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2138.184788664778</v>
+        <v>-3760.268002922543</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1311044777067048</v>
+        <v>0.0002272848729681617</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3790.333704121259</v>
+        <v>-2454.988939806795</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0002022863696533039</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-2324.147506359782</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3083241213878719</v>
+        <v>0.2816804503174856</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11617.54377006525</v>
+        <v>11724.67862338894</v>
       </c>
       <c r="C2" t="n">
-        <v>2.773640915595592e-10</v>
+        <v>1.889212181874432e-10</v>
       </c>
     </row>
     <row r="3">
@@ -1250,205 +1211,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1530.769720658623</v>
+        <v>1739.880964709087</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0515382355353304</v>
+        <v>0.02537336139876713</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2218.337019895646</v>
+        <v>3003.382031045736</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006866293599598649</v>
+        <v>0.0001164885322525803</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3026.394848379234</v>
+        <v>-2497.222595684377</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001029404627479451</v>
+        <v>0.1553691839824683</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2478.50912942823</v>
+        <v>59.19767529366558</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1583673804434043</v>
+        <v>0.4977143157357243</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.42817743534282</v>
+        <v>-698.8603320182748</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4470348739486689</v>
+        <v>0.002855952588938001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-728.260589391782</v>
+        <v>-43.15777325987226</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001922981471973281</v>
+        <v>2.886766705871601e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-41.06555421911897</v>
+        <v>379.1009263502041</v>
       </c>
       <c r="C9" t="n">
-        <v>7.588093273946384e-05</v>
+        <v>6.024070168523726e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>374.7766661259935</v>
+        <v>215.1345621892032</v>
       </c>
       <c r="C10" t="n">
-        <v>8.104474091792834e-07</v>
+        <v>5.582568809735751e-11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>220.0739928510495</v>
+        <v>0.07134996361484705</v>
       </c>
       <c r="C11" t="n">
-        <v>2.328860139432834e-11</v>
+        <v>0.3303851066666236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0752202024140745</v>
+        <v>-4.246320149942356e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3048827766691116</v>
+        <v>0.1838046992066639</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.528731991725608e-05</v>
+        <v>-31.03497622321886</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1566877942623859</v>
+        <v>0.001558686526906572</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-30.7448668896331</v>
+        <v>-13.35506790748749</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00172119364343588</v>
+        <v>0.2356142946435518</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-13.57539547938348</v>
+        <v>259.5629066214969</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2278621062605051</v>
+        <v>0.8558634861380366</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>218.4569234521615</v>
+        <v>-4145.311777461349</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8784736108367566</v>
+        <v>4.921948923295995e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4173.126800544493</v>
+        <v>-4173.646139112042</v>
       </c>
       <c r="C17" t="n">
-        <v>4.364575533856e-05</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-4055.99124598867</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.07919185397972298</v>
+        <v>0.07085050883857923</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1494,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10560.11665961691</v>
+        <v>10676.23355153492</v>
       </c>
       <c r="C2" t="n">
-        <v>9.420332200612626e-09</v>
+        <v>6.539080890910865e-09</v>
       </c>
     </row>
     <row r="3">
@@ -1507,205 +1455,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2018.591258917939</v>
+        <v>2282.617999079561</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00836073878598035</v>
+        <v>0.002593692487867675</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2881.818029123773</v>
+        <v>3311.075208402811</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003095560782533672</v>
+        <v>1.359788004205791e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3342.120258378806</v>
+        <v>-1790.651551469968</v>
       </c>
       <c r="C5" t="n">
-        <v>1.118577901585779e-05</v>
+        <v>0.2830756963202295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1774.431610968466</v>
+        <v>-12.2293715430119</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2871770094391661</v>
+        <v>0.8870241109336097</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.200913996255732</v>
+        <v>-894.5279649970214</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9981398437696956</v>
+        <v>0.0001144849639472236</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-918.9674451799956</v>
+        <v>-29.82651775904031</v>
       </c>
       <c r="C8" t="n">
-        <v>7.45649402045851e-05</v>
+        <v>0.003835708496159345</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-27.0166595289625</v>
+        <v>448.9232615853508</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009227110014782105</v>
+        <v>1.461146225918655e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>442.6753754528054</v>
+        <v>206.4515171399908</v>
       </c>
       <c r="C10" t="n">
-        <v>2.453412545174191e-09</v>
+        <v>1.737061152924983e-10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>212.4672849450428</v>
+        <v>0.1161807344482086</v>
       </c>
       <c r="C11" t="n">
-        <v>5.695714783611678e-11</v>
+        <v>0.1108013162104776</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.11817375269449</v>
+        <v>-3.386423919393874e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1046324044062432</v>
+        <v>0.2540398319166748</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.719730405550522e-05</v>
+        <v>-34.28364052467038</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2105114074841648</v>
+        <v>0.0004501945267282824</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-33.82781716859999</v>
+        <v>-12.83171729236984</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0005330834573812572</v>
+        <v>0.2624046269273708</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-13.33784962293275</v>
+        <v>2089.016146674822</v>
       </c>
       <c r="C15" t="n">
-        <v>0.243853139897391</v>
+        <v>0.1404123966982278</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1986.985284492537</v>
+        <v>-3746.006482941984</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1607809963606599</v>
+        <v>0.0001954086566824862</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3817.346669642685</v>
+        <v>-5824.944568019884</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001469200315651862</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-5637.236526995178</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.01312095897684457</v>
+        <v>0.01037588085383031</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9666.024166692485</v>
+        <v>9724.210469615167</v>
       </c>
       <c r="C2" t="n">
-        <v>9.502239144039901e-08</v>
+        <v>7.950350633094194e-08</v>
       </c>
     </row>
     <row r="3">
@@ -1764,205 +1699,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2133.413856940283</v>
+        <v>2307.32889209002</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00482881039154123</v>
+        <v>0.002055594830748559</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2688.731029549836</v>
+        <v>3646.389830526365</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006552079310825852</v>
+        <v>1.201769429720626e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3662.393924878317</v>
+        <v>-1732.974052148874</v>
       </c>
       <c r="C5" t="n">
-        <v>1.077330306448799e-06</v>
+        <v>0.3116007472097692</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1721.43631653916</v>
+        <v>38.66321874662724</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3147534879593251</v>
+        <v>0.6518312198643359</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.83569558881595</v>
+        <v>-672.2848265204807</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6011373820331007</v>
+        <v>0.003381377478104779</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-695.2480531129625</v>
+        <v>-51.53450153922469</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002487897560474843</v>
+        <v>4.463855349068704e-07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-49.96073543369628</v>
+        <v>310.2270759237316</v>
       </c>
       <c r="C9" t="n">
-        <v>1.112821696893123e-06</v>
+        <v>2.14413203000724e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>304.8766351684792</v>
+        <v>264.4383121963641</v>
       </c>
       <c r="C10" t="n">
-        <v>3.01740021903644e-05</v>
+        <v>1.536209011709987e-16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>269.2553960631432</v>
+        <v>0.07628885992097581</v>
       </c>
       <c r="C11" t="n">
-        <v>6.070248370464989e-17</v>
+        <v>0.2906899105407992</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07887896670530112</v>
+        <v>-3.414043335473239e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2746718575451013</v>
+        <v>0.2530043286011702</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.645972232311556e-05</v>
+        <v>-35.96985229699688</v>
       </c>
       <c r="C13" t="n">
-        <v>0.222705373659269</v>
+        <v>0.0002093887819262343</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-35.82981210517951</v>
+        <v>2.735434013487481</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0002212077043487448</v>
+        <v>0.8068370454759939</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.43121246132773</v>
+        <v>459.3897979199062</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8279597030907813</v>
+        <v>0.7409153664271646</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>393.9308601038821</v>
+        <v>-3753.198779413802</v>
       </c>
       <c r="C16" t="n">
-        <v>0.776836885080488</v>
+        <v>0.0002412992840880112</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3778.892956693488</v>
+        <v>-2898.93899766702</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0002185466515727612</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-2771.200121608607</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.2158971542280874</v>
+        <v>0.1952451669510916</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2008,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9224.940752055263</v>
+        <v>9348.019944939757</v>
       </c>
       <c r="C2" t="n">
-        <v>2.557255095114107e-07</v>
+        <v>1.739999394883925e-07</v>
       </c>
     </row>
     <row r="3">
@@ -2021,205 +1943,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2456.052852728047</v>
+        <v>2645.659224900269</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001850441426399387</v>
+        <v>0.0007053414897553523</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3063.15610984387</v>
+        <v>3877.088694681817</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001866659392937473</v>
+        <v>7.065565943105949e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3893.808999624932</v>
+        <v>-2050.697004501043</v>
       </c>
       <c r="C5" t="n">
-        <v>6.305276949062133e-07</v>
+        <v>0.2433128168886922</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2043.917785728219</v>
+        <v>-30.16395302319544</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2447652435717209</v>
+        <v>0.72319608547786</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.4540779471904</v>
+        <v>-723.0304493970415</v>
       </c>
       <c r="C7" t="n">
-        <v>0.765097207663832</v>
+        <v>0.001590256613262103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-738.9413540541184</v>
+        <v>-36.94558933113929</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001259456322828407</v>
+        <v>0.0002623008443770789</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-34.94996144278286</v>
+        <v>450.7675596330237</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0006030887011997788</v>
+        <v>1.499439352176758e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>444.8758392719901</v>
+        <v>228.3546301617101</v>
       </c>
       <c r="C10" t="n">
-        <v>2.514017710575531e-09</v>
+        <v>8.60821967798789e-13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>232.8656859762242</v>
+        <v>0.1085284405544797</v>
       </c>
       <c r="C11" t="n">
-        <v>3.667262336182364e-13</v>
+        <v>0.1320151600346486</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.110345683188381</v>
+        <v>-4.472839110523747e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1256213278618105</v>
+        <v>0.136125436879066</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.770312441989493e-05</v>
+        <v>-24.7268030958346</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1124992454563249</v>
+        <v>0.01011957053682767</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-24.38999369878317</v>
+        <v>-2.901603214255049</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01118859043732314</v>
+        <v>0.7886534263401003</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.883152153556908</v>
+        <v>-662.5703574433974</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7899179743112935</v>
+        <v>0.6318044220469987</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-690.4385405487265</v>
+        <v>-4640.183901451083</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6174810739672425</v>
+        <v>4.108144620269441e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4673.820622677117</v>
+        <v>-3669.590312079268</v>
       </c>
       <c r="C17" t="n">
-        <v>3.496126908139715e-06</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3494.315245197056</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.115559951943505</v>
+        <v>0.09811804077220274</v>
       </c>
     </row>
   </sheetData>
@@ -2233,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2265,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11393.28561277335</v>
+        <v>11538.03835572992</v>
       </c>
       <c r="C2" t="n">
-        <v>1.417848632070458e-09</v>
+        <v>8.820852862527933e-10</v>
       </c>
     </row>
     <row r="3">
@@ -2278,205 +2187,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1920.440271697845</v>
+        <v>2205.101426416702</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02065421258735596</v>
+        <v>0.007296778628669748</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2816.083191479486</v>
+        <v>3356.8831047241</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001062314118563219</v>
+        <v>4.575609893649876e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3380.237423113426</v>
+        <v>-2216.34548612872</v>
       </c>
       <c r="C5" t="n">
-        <v>4.011292532630337e-05</v>
+        <v>0.2125555446234789</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2211.934816005647</v>
+        <v>72.80639103030634</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2131867714559151</v>
+        <v>0.4051990027175316</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.68350563340348</v>
+        <v>-803.3336976549901</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3334521677144471</v>
+        <v>0.0006164884349383074</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-827.4608841481604</v>
+        <v>-48.2145580667826</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0004221369094565838</v>
+        <v>3.516289218870806e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-45.73796976259921</v>
+        <v>410.5765182817472</v>
       </c>
       <c r="C9" t="n">
-        <v>1.178512227137047e-05</v>
+        <v>4.59637913837034e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>402.1339513352755</v>
+        <v>222.5621396882109</v>
       </c>
       <c r="C10" t="n">
-        <v>8.715580267821917e-08</v>
+        <v>8.451660057884399e-12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>228.9128798636966</v>
+        <v>0.09321312673368992</v>
       </c>
       <c r="C11" t="n">
-        <v>2.461390965171278e-12</v>
+        <v>0.2079750666947266</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.09366415976982241</v>
+        <v>-3.521661848780348e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2055075353208125</v>
+        <v>0.2565834236397584</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.827422476302394e-05</v>
+        <v>-24.50006752265589</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2176881277786193</v>
+        <v>0.01301290053715598</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-24.13468876654025</v>
+        <v>-13.52825393199373</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01438056960882563</v>
+        <v>0.241187357238017</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-13.62611014070904</v>
+        <v>-10.5873199353066</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2375168192910539</v>
+        <v>0.9941328878184257</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-117.172950895423</v>
+        <v>-4740.401721090881</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9351292671120756</v>
+        <v>4.45878828286073e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4770.362058199506</v>
+        <v>-5767.809118573233</v>
       </c>
       <c r="C17" t="n">
-        <v>3.83430235603696e-06</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-5498.298588079856</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.01599204074845109</v>
+        <v>0.01145137172716053</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2522,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11101.44339319585</v>
+        <v>11150.89700278556</v>
       </c>
       <c r="C2" t="n">
-        <v>7.44465663680332e-10</v>
+        <v>6.188439055917877e-10</v>
       </c>
     </row>
     <row r="3">
@@ -2535,205 +2431,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1769.975279791583</v>
+        <v>1889.386978473639</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01995224482847717</v>
+        <v>0.01202762340681579</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2160.528963493784</v>
+        <v>2964.907030365253</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006510309480764837</v>
+        <v>8.489884021764256e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2976.424123665074</v>
+        <v>-1266.941819852312</v>
       </c>
       <c r="C5" t="n">
-        <v>7.978738324546553e-05</v>
+        <v>0.4895756798327866</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1263.751163846201</v>
+        <v>41.70203648370622</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4906624657232309</v>
+        <v>0.6299704967014236</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.28288604119823</v>
+        <v>-538.4692092140875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6011459225466761</v>
+        <v>0.01969952355680576</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-554.0035514937728</v>
+        <v>-54.20531046434904</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01664061626925215</v>
+        <v>1.098804325541604e-07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-53.04636936845883</v>
+        <v>351.383578702336</v>
       </c>
       <c r="C9" t="n">
-        <v>2.372841764682116e-07</v>
+        <v>2.443008350836731e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>346.8980372593785</v>
+        <v>236.4859950376595</v>
       </c>
       <c r="C10" t="n">
-        <v>3.391464340139858e-06</v>
+        <v>1.961344750873722e-13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>239.7132760593523</v>
+        <v>0.07940177376593563</v>
       </c>
       <c r="C11" t="n">
-        <v>1.184227620881088e-13</v>
+        <v>0.2762175041950504</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08039600266043906</v>
+        <v>-3.654491911647669e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2702798860125012</v>
+        <v>0.2227989577039469</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.815614422588614e-05</v>
+        <v>-27.12669275583968</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2036310805278594</v>
+        <v>0.005124475000223497</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-26.90761197603696</v>
+        <v>-6.167787947184001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.005504078775273882</v>
+        <v>0.571786050159143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6.28945509042932</v>
+        <v>-436.0592349309727</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5642398184341735</v>
+        <v>0.7555311221717005</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-479.828938900298</v>
+        <v>-4509.326287738631</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7319999597433635</v>
+        <v>9.393349284281756e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4531.488353996138</v>
+        <v>-4233.629707360993</v>
       </c>
       <c r="C17" t="n">
-        <v>8.524758134766335e-06</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-4141.221565355102</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.06649338739149745</v>
+        <v>0.06046914467833087</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Lille.xlsx
+++ b/outputs/ML_Results/dist_commute/Lille.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ48358243" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ48698091" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ49093100" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ49514328" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ49917032" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ50292572" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ50681825" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ51096370" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ51478247" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ13058818" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ13354373" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ13636443" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ13914989" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ14191357" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ14461396" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ14736918" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ15069339" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ15511603" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,205 +466,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11204.33835867115</v>
+        <v>12890.08520499789</v>
       </c>
       <c r="C2" t="n">
-        <v>6.202141187776932e-10</v>
+        <v>4.046972722884929e-06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2388.97341768738</v>
+        <v>1706.868020517447</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001825003067131115</v>
+        <v>0.4064864715629951</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3533.650738528027</v>
+        <v>4080.821696369742</v>
       </c>
       <c r="C4" t="n">
-        <v>4.154123770076859e-06</v>
+        <v>0.03453563396040568</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1415.378349144136</v>
+        <v>5201.937148661776</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4249513766258278</v>
+        <v>0.006985103110999545</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79.28431248681558</v>
+        <v>-4407.385937841302</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3589424946819566</v>
+        <v>0.00134602670273041</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-743.6841770002115</v>
+        <v>-3835.838833096089</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001338786778760602</v>
+        <v>0.00502489522060435</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-51.71457384942713</v>
+        <v>81.75310254691836</v>
       </c>
       <c r="C8" t="n">
-        <v>5.537674328604763e-07</v>
+        <v>0.3435838081577047</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>331.9187013251633</v>
+        <v>-730.7790915812366</v>
       </c>
       <c r="C9" t="n">
-        <v>1.394916160809781e-05</v>
+        <v>0.001600631016840863</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>254.9783384283606</v>
+        <v>-53.09883798611489</v>
       </c>
       <c r="C10" t="n">
-        <v>5.039738154380739e-15</v>
+        <v>2.726669252137357e-07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.09181481139360353</v>
+        <v>331.661391532281</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2076877624404227</v>
+        <v>1.46542092619132e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.380922542211148e-05</v>
+        <v>247.779148338215</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2580986321113014</v>
+        <v>2.990550708877719e-14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-36.91142866087921</v>
+        <v>0.09136425774241658</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001706845592538614</v>
+        <v>0.2091879625552506</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-11.75524033415517</v>
+        <v>-3.446632368392761e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2824703978071534</v>
+        <v>0.2482228391899783</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-608.5558773230892</v>
+        <v>-36.60191289944471</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6689504958812171</v>
+        <v>0.0001898298783201275</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3959.03132345125</v>
+        <v>-11.47375732310673</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001077687170558216</v>
+        <v>0.2934080755154528</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-522.3930946913071</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7133054285386774</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-4110.32607846248</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5.769383450604786e-05</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2154.479163751312</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3394723722210135</v>
+      <c r="B19" t="n">
+        <v>-2222.483697154717</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3239828020062345</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,205 +736,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12508.83706199487</v>
+        <v>13769.68443280207</v>
       </c>
       <c r="C2" t="n">
-        <v>3.888470382901643e-12</v>
+        <v>5.460809342562639e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2337.252333464379</v>
+        <v>1962.222723953335</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002124332320524389</v>
+        <v>0.3237611926371241</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3332.090233240718</v>
+        <v>4322.106831677118</v>
       </c>
       <c r="C4" t="n">
-        <v>1.203122461648075e-05</v>
+        <v>0.02023124458298145</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1724.78608596253</v>
+        <v>5288.038832077797</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3188233148689651</v>
+        <v>0.004441118812227952</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.14290228588676</v>
+        <v>-4136.33992698849</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4803255546372219</v>
+        <v>0.002588071276191922</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-693.073341878426</v>
+        <v>-3624.151912864128</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00272929986681251</v>
+        <v>0.007957190592518244</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-49.55140575127403</v>
+        <v>65.48139301891268</v>
       </c>
       <c r="C8" t="n">
-        <v>1.224315548104099e-06</v>
+        <v>0.4491405027636484</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>408.1466215968223</v>
+        <v>-699.7872645480521</v>
       </c>
       <c r="C9" t="n">
-        <v>1.115535494784021e-07</v>
+        <v>0.002452413176116315</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.1062810299844</v>
+        <v>-51.08306366911611</v>
       </c>
       <c r="C10" t="n">
-        <v>1.84645598981334e-16</v>
+        <v>5.741359556490988e-07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06886065223843942</v>
+        <v>409.0117112281785</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3423920401206563</v>
+        <v>1.125126138265832e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4.080106623589678e-05</v>
+        <v>260.9288299140927</v>
       </c>
       <c r="C12" t="n">
-        <v>0.187572068189873</v>
+        <v>1.202306929569828e-15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-35.64698888368878</v>
+        <v>0.06673094990929014</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002253314972929517</v>
+        <v>0.3569346014183258</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-24.2134400086324</v>
+        <v>-4.231139428381e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02682413483498566</v>
+        <v>0.1713250706414394</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-27.87881061553912</v>
+        <v>-35.69013571016107</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9840476399537379</v>
+        <v>0.0002178856000198764</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4261.008254345607</v>
+        <v>-24.17699799569661</v>
       </c>
       <c r="C16" t="n">
-        <v>2.887384070243488e-05</v>
+        <v>0.02685055638679307</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>99.37466422081025</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9431529034877226</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-4398.358552754708</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.583665785999848e-05</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-3192.952503057745</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1565998213769743</v>
+      <c r="B19" t="n">
+        <v>-3184.460553293252</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1573615221949815</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,205 +1006,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9854.621730644694</v>
+        <v>11906.91405974426</v>
       </c>
       <c r="C2" t="n">
-        <v>6.630470577193377e-08</v>
+        <v>6.627735754261818e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2126.428487940415</v>
+        <v>1057.668260349034</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00645999334949982</v>
+        <v>0.6467059297690372</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3312.809159761723</v>
+        <v>3281.998610191124</v>
       </c>
       <c r="C4" t="n">
-        <v>2.243540803753218e-05</v>
+        <v>0.1349447883408551</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1468.040800650754</v>
+        <v>4448.729239706616</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4224605776734313</v>
+        <v>0.04252555462939032</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.56820860059591</v>
+        <v>-4066.683847460672</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4337695402655949</v>
+        <v>0.002449657906270307</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-579.6081192498228</v>
+        <v>-3595.993085322099</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01337895973642574</v>
+        <v>0.007067301020744594</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-44.94959445987162</v>
+        <v>71.93380042979285</v>
       </c>
       <c r="C8" t="n">
-        <v>1.41424685649671e-05</v>
+        <v>0.4042373246757588</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>343.0367121749401</v>
+        <v>-569.0787899672999</v>
       </c>
       <c r="C9" t="n">
-        <v>4.919740153418592e-06</v>
+        <v>0.01508999251657937</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.7929537470933</v>
+        <v>-46.34581975731103</v>
       </c>
       <c r="C10" t="n">
-        <v>6.676135428788076e-13</v>
+        <v>7.630055799296141e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06421951601077278</v>
+        <v>345.6091818066221</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3793354960121383</v>
+        <v>4.353015020761497e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-9.878058115875071e-05</v>
+        <v>230.3110066027843</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00184072180518088</v>
+        <v>2.286155593980607e-12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-26.44677917975604</v>
+        <v>0.0603833284914454</v>
       </c>
       <c r="C13" t="n">
-        <v>0.006913377589190828</v>
+        <v>0.4079601966019903</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.448912889877279</v>
+        <v>-9.963486907736568e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5651606806147952</v>
+        <v>0.001658785136742824</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2198.200262681417</v>
+        <v>-26.03403543676655</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1205797339783782</v>
+        <v>0.007784939242506627</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3760.268002922543</v>
+        <v>-6.036864624499154</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0002272848729681617</v>
+        <v>0.5898612765099615</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2252.647568277926</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1114070081670921</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-3849.651464556602</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0001595256170350437</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2454.988939806795</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2816804503174856</v>
+      <c r="B19" t="n">
+        <v>-2388.269613773126</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2947095473789808</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,205 +1276,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11724.67862338894</v>
+        <v>11236.62779616029</v>
       </c>
       <c r="C2" t="n">
-        <v>1.889212181874432e-10</v>
+        <v>6.481446707372112e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1739.880964709087</v>
+        <v>2207.263346210041</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02537336139876713</v>
+        <v>0.2743260716876145</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3003.382031045736</v>
+        <v>4091.659699988857</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001164885322525803</v>
+        <v>0.03008411060977931</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2497.222595684377</v>
+        <v>5334.017705218717</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1553691839824683</v>
+        <v>0.00463863757732925</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59.19767529366558</v>
+        <v>-2757.638272440998</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4977143157357243</v>
+        <v>0.05592106713053756</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-698.8603320182748</v>
+        <v>-2351.111958165809</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002855952588938001</v>
+        <v>0.1014869731021462</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-43.15777325987226</v>
+        <v>63.29036355795873</v>
       </c>
       <c r="C8" t="n">
-        <v>2.886766705871601e-05</v>
+        <v>0.4684400197078175</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>379.1009263502041</v>
+        <v>-695.2547401432753</v>
       </c>
       <c r="C9" t="n">
-        <v>6.024070168523726e-07</v>
+        <v>0.002996733382310788</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>215.1345621892032</v>
+        <v>-44.28506158189062</v>
       </c>
       <c r="C10" t="n">
-        <v>5.582568809735751e-11</v>
+        <v>1.830079869244727e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07134996361484705</v>
+        <v>378.5453308113159</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3303851066666236</v>
+        <v>6.704680611893835e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4.246320149942356e-05</v>
+        <v>210.8948790217803</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1838046992066639</v>
+        <v>1.471988547633426e-10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-31.03497622321886</v>
+        <v>0.0685252048321128</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001558686526906572</v>
+        <v>0.3497940258894536</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-13.35506790748749</v>
+        <v>-4.443679672414239e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2356142946435518</v>
+        <v>0.1643909509356887</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>259.5629066214969</v>
+        <v>-30.79208445913128</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8558634861380366</v>
+        <v>0.00169550093189625</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4145.311777461349</v>
+        <v>-13.13255745081366</v>
       </c>
       <c r="C16" t="n">
-        <v>4.921948923295995e-05</v>
+        <v>0.24335934046427</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>302.3083493846202</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8324710295445863</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-4250.732415197691</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.244712090395783e-05</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-4173.646139112042</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07085050883857923</v>
+      <c r="B19" t="n">
+        <v>-4095.553889266512</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.07651873561996279</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,205 +1546,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10676.23355153492</v>
+        <v>11657.68707795195</v>
       </c>
       <c r="C2" t="n">
-        <v>6.539080890910865e-09</v>
+        <v>2.476511249464505e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2282.617999079561</v>
+        <v>1717.133880104626</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002593692487867675</v>
+        <v>0.3877891361712593</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3311.075208402811</v>
+        <v>4114.499868710794</v>
       </c>
       <c r="C4" t="n">
-        <v>1.359788004205791e-05</v>
+        <v>0.02718834977598983</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1790.651551469968</v>
+        <v>5115.767153397926</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2830756963202295</v>
+        <v>0.005973513104128484</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12.2293715430119</v>
+        <v>-3922.144964303298</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8870241109336097</v>
+        <v>0.00366863388604115</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-894.5279649970214</v>
+        <v>-3367.39826173953</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001144849639472236</v>
+        <v>0.0121365103559864</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-29.82651775904031</v>
+        <v>-11.79662724653323</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003835708496159345</v>
+        <v>0.890859498097466</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>448.9232615853508</v>
+        <v>-893.0241630524029</v>
       </c>
       <c r="C9" t="n">
-        <v>1.461146225918655e-09</v>
+        <v>0.0001156973095120044</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>206.4515171399908</v>
+        <v>-31.41249349038597</v>
       </c>
       <c r="C10" t="n">
-        <v>1.737061152924983e-10</v>
+        <v>0.002345100316680272</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1161807344482086</v>
+        <v>448.6035528249506</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1108013162104776</v>
+        <v>1.598329398405316e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.386423919393874e-05</v>
+        <v>199.6299906322879</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2540398319166748</v>
+        <v>7.111150109474666e-10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-34.28364052467038</v>
+        <v>0.1147328359995695</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0004501945267282824</v>
+        <v>0.1149008608033052</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-12.83171729236984</v>
+        <v>-3.493872451418507e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2624046269273708</v>
+        <v>0.238716556892611</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2089.016146674822</v>
+        <v>-34.22776876506181</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1404123966982278</v>
+        <v>0.0004552467709989539</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3746.006482941984</v>
+        <v>-12.83485006338075</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001954086566824862</v>
+        <v>0.2616942730783157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2169.959179022465</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1255438408215853</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-3880.462317346763</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.00011422742273654</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-5824.944568019884</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.01037588085383031</v>
+      <c r="B19" t="n">
+        <v>-5835.843710434754</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.010196209018281</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,205 +1816,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9724.210469615167</v>
+        <v>10871.29367608828</v>
       </c>
       <c r="C2" t="n">
-        <v>7.950350633094194e-08</v>
+        <v>7.273057703970391e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2307.32889209002</v>
+        <v>1722.242549500456</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002055594830748559</v>
+        <v>0.3817433174824879</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3646.389830526365</v>
+        <v>4085.620354498123</v>
       </c>
       <c r="C4" t="n">
-        <v>1.201769429720626e-06</v>
+        <v>0.02670613615449538</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1732.974052148874</v>
+        <v>5398.067072300627</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3116007472097692</v>
+        <v>0.003377379741878313</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.66321874662724</v>
+        <v>-3758.198324101482</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6518312198643359</v>
+        <v>0.005690024861520273</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-672.2848265204807</v>
+        <v>-3437.618258086156</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003381377478104779</v>
+        <v>0.01098423641144446</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-51.53450153922469</v>
+        <v>39.39415103942504</v>
       </c>
       <c r="C8" t="n">
-        <v>4.463855349068704e-07</v>
+        <v>0.6454596293795584</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>310.2270759237316</v>
+        <v>-678.0546401817647</v>
       </c>
       <c r="C9" t="n">
-        <v>2.14413203000724e-05</v>
+        <v>0.003100659212808123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>264.4383121963641</v>
+        <v>-52.80203790502037</v>
       </c>
       <c r="C10" t="n">
-        <v>1.536209011709987e-16</v>
+        <v>2.392810904237521e-07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07628885992097581</v>
+        <v>312.7212512680691</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2906899105407992</v>
+        <v>1.915303876422472e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.414043335473239e-05</v>
+        <v>260.4568745090302</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2530043286011702</v>
+        <v>4.741438080786164e-16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-35.96985229699688</v>
+        <v>0.0736821798965055</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002093887819262343</v>
+        <v>0.3071071344723711</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.735434013487481</v>
+        <v>-3.44820545227552e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8068370454759939</v>
+        <v>0.2479292387216612</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>459.3897979199062</v>
+        <v>-35.71336052203162</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7409153664271646</v>
+        <v>0.0002305092662459588</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3753.198779413802</v>
+        <v>3.116534654419319</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0002412992840880112</v>
+        <v>0.780437668184368</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>504.9410313919669</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7162147997811971</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-3854.762593069156</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0001650589948210544</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2898.93899766702</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1952451669510916</v>
+      <c r="B19" t="n">
+        <v>-2830.534203159481</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2057532168128935</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +2054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,205 +2086,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9348.019944939757</v>
+        <v>11864.37555292926</v>
       </c>
       <c r="C2" t="n">
-        <v>1.739999394883925e-07</v>
+        <v>6.879124128687726e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2645.659224900269</v>
+        <v>2478.900637517433</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007053414897553523</v>
+        <v>0.2534751538902741</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3877.088694681817</v>
+        <v>5165.812267294241</v>
       </c>
       <c r="C4" t="n">
-        <v>7.065565943105949e-07</v>
+        <v>0.01180816917266742</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2050.697004501043</v>
+        <v>6357.508584461792</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2433128168886922</v>
+        <v>0.001925184230024071</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30.16395302319544</v>
+        <v>-5923.039957657588</v>
       </c>
       <c r="C6" t="n">
-        <v>0.72319608547786</v>
+        <v>0.0001473099858526851</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-723.0304493970415</v>
+        <v>-5347.119530744994</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001590256613262103</v>
+        <v>0.0005754637657929955</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-36.94558933113929</v>
+        <v>-25.34577279778689</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002623008443770789</v>
+        <v>0.7655465571411408</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>450.7675596330237</v>
+        <v>-699.4959214528526</v>
       </c>
       <c r="C9" t="n">
-        <v>1.499439352176758e-09</v>
+        <v>0.002212186234721514</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>228.3546301617101</v>
+        <v>-39.75706295321588</v>
       </c>
       <c r="C10" t="n">
-        <v>8.60821967798789e-13</v>
+        <v>8.696019559958244e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1085284405544797</v>
+        <v>451.4153335843592</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1320151600346486</v>
+        <v>1.434874110846112e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4.472839110523747e-05</v>
+        <v>220.0583327096564</v>
       </c>
       <c r="C12" t="n">
-        <v>0.136125436879066</v>
+        <v>5.670067076752811e-12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-24.7268030958346</v>
+        <v>0.1005232589701743</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01011957053682767</v>
+        <v>0.1622643934082889</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.901603214255049</v>
+        <v>-4.746280422790123e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7886534263401003</v>
+        <v>0.1132093551031565</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-662.5703574433974</v>
+        <v>-23.73599306696987</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6318044220469987</v>
+        <v>0.01338186210700378</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4640.183901451083</v>
+        <v>-3.121597363079159</v>
       </c>
       <c r="C16" t="n">
-        <v>4.108144620269441e-06</v>
+        <v>0.7725863160662256</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-765.7592682319766</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5790577867625877</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-4769.049750141178</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.145599195814407e-06</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-3669.590312079268</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.09811804077220274</v>
+      <c r="B19" t="n">
+        <v>-3602.963554695805</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1037988844937458</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,205 +2356,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11538.03835572992</v>
+        <v>11800.22608783498</v>
       </c>
       <c r="C2" t="n">
-        <v>8.820852862527933e-10</v>
+        <v>5.260002888013794e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2205.101426416702</v>
+        <v>2481.578029336451</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007296778628669748</v>
+        <v>0.2513808645195449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3356.8831047241</v>
+        <v>4801.129643906509</v>
       </c>
       <c r="C4" t="n">
-        <v>4.575609893649876e-05</v>
+        <v>0.01788512010248842</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2216.34548612872</v>
+        <v>5933.40153263056</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2125555446234789</v>
+        <v>0.003388812055374311</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72.80639103030634</v>
+        <v>-3859.096267513405</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4051990027175316</v>
+        <v>0.007465717559869659</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-803.3336976549901</v>
+        <v>-3480.839518700524</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0006164884349383074</v>
+        <v>0.01528691793764903</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-48.2145580667826</v>
+        <v>77.99727181028172</v>
       </c>
       <c r="C8" t="n">
-        <v>3.516289218870806e-06</v>
+        <v>0.3722259484400374</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>410.5765182817472</v>
+        <v>-805.6970651109989</v>
       </c>
       <c r="C9" t="n">
-        <v>4.59637913837034e-08</v>
+        <v>0.0005923439084630773</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.5621396882109</v>
+        <v>-49.13783377588233</v>
       </c>
       <c r="C10" t="n">
-        <v>8.451660057884399e-12</v>
+        <v>2.30918220432022e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.09321312673368992</v>
+        <v>414.8859075384431</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2079750666947266</v>
+        <v>3.592486655903586e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.521661848780348e-05</v>
+        <v>216.2319721930184</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2565834236397584</v>
+        <v>3.472099747363022e-11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-24.50006752265589</v>
+        <v>0.09201748271259771</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01301290053715598</v>
+        <v>0.2134650290413403</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-13.52825393199373</v>
+        <v>-3.62317821981822e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.241187357238017</v>
+        <v>0.2428280731624662</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10.5873199353066</v>
+        <v>-24.57772330535082</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9941328878184257</v>
+        <v>0.01269111935138335</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4740.401721090881</v>
+        <v>-13.36362104110351</v>
       </c>
       <c r="C16" t="n">
-        <v>4.45878828286073e-06</v>
+        <v>0.2466001978197815</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>25.01273021946304</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9861364764591461</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-4806.076918598039</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.307634276477966e-06</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-5767.809118573233</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.01145137172716053</v>
+      <c r="B19" t="n">
+        <v>-5681.909686026631</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01268742066969646</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,205 +2626,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11150.89700278556</v>
+        <v>13710.23347417718</v>
       </c>
       <c r="C2" t="n">
-        <v>6.188439055917877e-10</v>
+        <v>8.783909892340266e-06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1889.386978473639</v>
+        <v>817.3007963837395</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01202762340681579</v>
+        <v>0.7298618302144103</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2964.907030365253</v>
+        <v>2797.087241248252</v>
       </c>
       <c r="C4" t="n">
-        <v>8.489884021764256e-05</v>
+        <v>0.2166201922978294</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1266.941819852312</v>
+        <v>3853.491094469209</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4895756798327866</v>
+        <v>0.08842895010361168</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.70203648370622</v>
+        <v>-4120.186517045476</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6299704967014236</v>
+        <v>0.005186909937018422</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-538.4692092140875</v>
+        <v>-3773.069733131574</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01969952355680576</v>
+        <v>0.01008136843302709</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-54.20531046434904</v>
+        <v>39.4526389882198</v>
       </c>
       <c r="C8" t="n">
-        <v>1.098804325541604e-07</v>
+        <v>0.6482544931395489</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>351.383578702336</v>
+        <v>-544.0167545858694</v>
       </c>
       <c r="C9" t="n">
-        <v>2.443008350836731e-06</v>
+        <v>0.01838215944067297</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>236.4859950376595</v>
+        <v>-55.98546541535984</v>
       </c>
       <c r="C10" t="n">
-        <v>1.961344750873722e-13</v>
+        <v>4.4371270455883e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07940177376593563</v>
+        <v>353.4625104761414</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2762175041950504</v>
+        <v>2.200849836680321e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.654491911647669e-05</v>
+        <v>232.1831953376947</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2227989577039469</v>
+        <v>5.722085060021477e-13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-27.12669275583968</v>
+        <v>0.07520278757277528</v>
       </c>
       <c r="C13" t="n">
-        <v>0.005124475000223497</v>
+        <v>0.3021464266703986</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.167787947184001</v>
+        <v>-3.825349474603833e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.571786050159143</v>
+        <v>0.20168485147536</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-436.0592349309727</v>
+        <v>-26.74847470447934</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7555311221717005</v>
+        <v>0.00576467416907141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4509.326287738631</v>
+        <v>-6.166096156776451</v>
       </c>
       <c r="C16" t="n">
-        <v>9.393349284281756e-06</v>
+        <v>0.571598941325455</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-416.0050546269485</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7663745965543927</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-4594.602487874919</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.472284471958713e-06</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-4233.629707360993</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.06046914467833087</v>
+      <c r="B19" t="n">
+        <v>-4111.388711174568</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.06828162580934542</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Lille.xlsx
+++ b/outputs/ML_Results/dist_commute/Lille.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ13058818" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ13354373" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ13636443" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ13914989" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ14191357" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ14461396" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ14736918" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ15069339" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ15511603" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ11582248" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ11834022" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ12117066" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ12384375" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ12659367" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ12925385" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ13216031" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ13579884" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ13950349" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12890.08520499789</v>
+        <v>12648.90783084643</v>
       </c>
       <c r="C2" t="n">
-        <v>4.046972722884929e-06</v>
+        <v>5.615966727424846e-06</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1706.868020517447</v>
+        <v>1698.662731930877</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4064864715629951</v>
+        <v>0.4087405007752908</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4080.821696369742</v>
+        <v>4070.400878407552</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03453563396040568</v>
+        <v>0.03499587752751029</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5201.937148661776</v>
+        <v>5179.853537787507</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006985103110999545</v>
+        <v>0.007224747705664374</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4407.385937841302</v>
+        <v>-4426.586480310089</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00134602670273041</v>
+        <v>0.001280725447753394</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3835.838833096089</v>
+        <v>-3862.621555793243</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00502489522060435</v>
+        <v>0.004719672053742023</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>81.75310254691836</v>
+        <v>85.22297046167662</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3435838081577047</v>
+        <v>0.3230911173653563</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-730.7790915812366</v>
+        <v>-734.4035036683108</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001600631016840863</v>
+        <v>0.0015147954034397</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-53.09883798611489</v>
+        <v>-52.48965593484661</v>
       </c>
       <c r="C10" t="n">
-        <v>2.726669252137357e-07</v>
+        <v>3.547410248470349e-07</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>331.661391532281</v>
+        <v>324.6300870613528</v>
       </c>
       <c r="C11" t="n">
-        <v>1.46542092619132e-05</v>
+        <v>2.037849492533528e-05</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>247.779148338215</v>
+        <v>259.4125270426649</v>
       </c>
       <c r="C12" t="n">
-        <v>2.990550708877719e-14</v>
+        <v>1.466304233397004e-17</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.09136425774241658</v>
+        <v>0.05180582862924572</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2091879625552506</v>
+        <v>0.3933607937963264</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.446632368392761e-05</v>
+        <v>-4.002603303682742e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2482228391899783</v>
+        <v>0.17210707032499</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-36.60191289944471</v>
+        <v>-37.2133770575443</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001898298783201275</v>
+        <v>0.0001435148265017444</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-11.47375732310673</v>
+        <v>-10.43967518904195</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2934080755154528</v>
+        <v>0.3368373746374845</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-522.3930946913071</v>
+        <v>-594.9524491318252</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7133054285386774</v>
+        <v>0.6752044408088553</v>
       </c>
     </row>
     <row r="18">
@@ -674,23 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4110.32607846248</v>
+        <v>-3844.30551478189</v>
       </c>
       <c r="C18" t="n">
-        <v>5.769383450604786e-05</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-2222.483697154717</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3239828020062345</v>
+        <v>9.596803109350417e-05</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13769.68443280207</v>
+        <v>13443.70095450088</v>
       </c>
       <c r="C2" t="n">
-        <v>5.460809342562639e-07</v>
+        <v>9.20982837244233e-07</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1962.222723953335</v>
+        <v>1965.449275827161</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3237611926371241</v>
+        <v>0.3230285333071624</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4322.106831677118</v>
+        <v>4315.397337866983</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02023124458298145</v>
+        <v>0.02044184999866383</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5288.038832077797</v>
+        <v>5258.602076711112</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004441118812227952</v>
+        <v>0.004669467051424471</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4136.33992698849</v>
+        <v>-4169.135539622871</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002588071276191922</v>
+        <v>0.002391431398531418</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3624.151912864128</v>
+        <v>-3665.250976900602</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007957190592518244</v>
+        <v>0.007270132236092192</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65.48139301891268</v>
+        <v>68.86143196578732</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4491405027636484</v>
+        <v>0.4259658919022266</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-699.7872645480521</v>
+        <v>-698.9831112519472</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002452413176116315</v>
+        <v>0.002483914951499269</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-51.08306366911611</v>
+        <v>-50.34949672799279</v>
       </c>
       <c r="C10" t="n">
-        <v>5.741359556490988e-07</v>
+        <v>8.061210982996745e-07</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>409.0117112281785</v>
+        <v>398.6364093827804</v>
       </c>
       <c r="C11" t="n">
-        <v>1.125126138265832e-07</v>
+        <v>2.057507538111626e-07</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>260.9288299140927</v>
+        <v>277.4382609463305</v>
       </c>
       <c r="C12" t="n">
-        <v>1.202306929569828e-15</v>
+        <v>8.356525864404986e-20</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06673094990929014</v>
+        <v>0.009687688880695641</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3569346014183258</v>
+        <v>0.87209081874501</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.231139428381e-05</v>
+        <v>-4.969844715942433e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1713250706414394</v>
+        <v>0.1031194284463594</v>
       </c>
     </row>
     <row r="15">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-35.69013571016107</v>
+        <v>-36.64804013167489</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002178856000198764</v>
+        <v>0.0001416528612478708</v>
       </c>
     </row>
     <row r="16">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-24.17699799569661</v>
+        <v>-22.71906696720689</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02685055638679307</v>
+        <v>0.03667791292401561</v>
       </c>
     </row>
     <row r="17">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>99.37466422081025</v>
+        <v>-23.8936664935739</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9431529034877226</v>
+        <v>0.9862956911455733</v>
       </c>
     </row>
     <row r="18">
@@ -944,23 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4398.358552754708</v>
+        <v>-4021.669634787279</v>
       </c>
       <c r="C18" t="n">
-        <v>1.583665785999848e-05</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-3184.460553293252</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1573615221949815</v>
+        <v>4.321858268314875e-05</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11906.91405974426</v>
+        <v>11677.41794271598</v>
       </c>
       <c r="C2" t="n">
-        <v>6.627735754261818e-05</v>
+        <v>8.743172352299402e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1057.668260349034</v>
+        <v>1060.14251391623</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6467059297690372</v>
+        <v>0.6459399450213849</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3281.998610191124</v>
+        <v>3282.880019588571</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1349447883408551</v>
+        <v>0.1348449627516607</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4448.729239706616</v>
+        <v>4429.305951283275</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04252555462939032</v>
+        <v>0.04343158433065206</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4066.683847460672</v>
+        <v>-4107.212048639156</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002449657906270307</v>
+        <v>0.00220688182466562</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3595.993085322099</v>
+        <v>-3643.026455379573</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007067301020744594</v>
+        <v>0.006326459176333447</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>71.93380042979285</v>
+        <v>74.8130377414769</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4042373246757588</v>
+        <v>0.3854552126766354</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-569.0787899672999</v>
+        <v>-571.1088857605953</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01508999251657937</v>
+        <v>0.01473092205602333</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-46.34581975731103</v>
+        <v>-45.83373880269905</v>
       </c>
       <c r="C10" t="n">
-        <v>7.630055799296141e-06</v>
+        <v>9.38541832194923e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>345.6091818066221</v>
+        <v>338.6319659953184</v>
       </c>
       <c r="C11" t="n">
-        <v>4.353015020761497e-06</v>
+        <v>6.214512696087785e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>230.3110066027843</v>
+        <v>242.5728244908996</v>
       </c>
       <c r="C12" t="n">
-        <v>2.286155593980607e-12</v>
+        <v>2.666613752735242e-15</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0603833284914454</v>
+        <v>0.01793202113837605</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4079601966019903</v>
+        <v>0.7676418657181736</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.963486907736568e-05</v>
+        <v>-0.0001056673643318431</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001658785136742824</v>
+        <v>0.0006939152602262184</v>
       </c>
     </row>
     <row r="15">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-26.03403543676655</v>
+        <v>-26.65610170140094</v>
       </c>
       <c r="C15" t="n">
-        <v>0.007784939242506627</v>
+        <v>0.006337617756676835</v>
       </c>
     </row>
     <row r="16">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-6.036864624499154</v>
+        <v>-4.987399240118025</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5898612765099615</v>
+        <v>0.6547901218081462</v>
       </c>
     </row>
     <row r="17">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2252.647568277926</v>
+        <v>2155.926805326319</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1114070081670921</v>
+        <v>0.1268099739327182</v>
       </c>
     </row>
     <row r="18">
@@ -1214,23 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3849.651464556602</v>
+        <v>-3576.911714909117</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001595256170350437</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-2388.269613773126</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.2947095473789808</v>
+        <v>0.000284626534814882</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11236.62779616029</v>
+        <v>10841.06219400619</v>
       </c>
       <c r="C2" t="n">
-        <v>6.481446707372112e-05</v>
+        <v>0.0001109306542762642</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2207.263346210041</v>
+        <v>2191.493267333442</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2743260716876145</v>
+        <v>0.2778969163060651</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4091.659699988857</v>
+        <v>4081.925664393572</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03008411060977931</v>
+        <v>0.03052304211098376</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5334.017705218717</v>
+        <v>5295.04042712762</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00463863757732925</v>
+        <v>0.004956275953929748</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2757.638272440998</v>
+        <v>-2868.074756739062</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05592106713053756</v>
+        <v>0.04664848715269381</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2351.111958165809</v>
+        <v>-2469.196371574794</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1014869731021462</v>
+        <v>0.08519819920163936</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63.29036355795873</v>
+        <v>68.39059842361669</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4684400197078175</v>
+        <v>0.4332453295090188</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-695.2547401432753</v>
+        <v>-698.0818025092669</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002996733382310788</v>
+        <v>0.002888374994430406</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-44.28506158189062</v>
+        <v>-42.94737381807837</v>
       </c>
       <c r="C10" t="n">
-        <v>1.830079869244727e-05</v>
+        <v>3.106310122902803e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>378.5453308113159</v>
+        <v>366.4528537722207</v>
       </c>
       <c r="C11" t="n">
-        <v>6.704680611893835e-07</v>
+        <v>1.368320862087973e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>210.8948790217803</v>
+        <v>231.7749083954257</v>
       </c>
       <c r="C12" t="n">
-        <v>1.471988547633426e-10</v>
+        <v>4.838294385552896e-14</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0685252048321128</v>
+        <v>-0.003841153486976976</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3497940258894536</v>
+        <v>0.9496777565484606</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.443679672414239e-05</v>
+        <v>-5.539173421310298e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1643909509356887</v>
+        <v>0.07739405999150194</v>
       </c>
     </row>
     <row r="15">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-30.79208445913128</v>
+        <v>-31.53388235223278</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00169550093189625</v>
+        <v>0.001297549589284876</v>
       </c>
     </row>
     <row r="16">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-13.13255745081366</v>
+        <v>-11.08378340048212</v>
       </c>
       <c r="C16" t="n">
-        <v>0.24335934046427</v>
+        <v>0.3223611515011361</v>
       </c>
     </row>
     <row r="17">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>302.3083493846202</v>
+        <v>122.3611153382064</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8324710295445863</v>
+        <v>0.9316150845246243</v>
       </c>
     </row>
     <row r="18">
@@ -1484,23 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4250.732415197691</v>
+        <v>-3803.860075414477</v>
       </c>
       <c r="C18" t="n">
-        <v>3.244712090395783e-05</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-4095.553889266512</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.07651873561996279</v>
+        <v>0.0001245195747118109</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11657.68707795195</v>
+        <v>11059.40647087106</v>
       </c>
       <c r="C2" t="n">
-        <v>2.476511249464505e-05</v>
+        <v>6.012096593966141e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1717.133880104626</v>
+        <v>1701.026312034097</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3877891361712593</v>
+        <v>0.3925965688882508</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4114.499868710794</v>
+        <v>4098.37529766746</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02718834977598983</v>
+        <v>0.02790832938725095</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5115.767153397926</v>
+        <v>5060.427040768487</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005973513104128484</v>
+        <v>0.006573041805074588</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3922.144964303298</v>
+        <v>-4010.885663205006</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00366863388604115</v>
+        <v>0.002979784151676183</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3367.39826173953</v>
+        <v>-3474.517567152585</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0121365103559864</v>
+        <v>0.009674738115428608</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-11.79662724653323</v>
+        <v>-6.358699325260659</v>
       </c>
       <c r="C8" t="n">
-        <v>0.890859498097466</v>
+        <v>0.9410641780424813</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-893.0241630524029</v>
+        <v>-891.1335168008877</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001156973095120044</v>
+        <v>0.0001209649892308921</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-31.41249349038597</v>
+        <v>-29.78008026750425</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002345100316680272</v>
+        <v>0.003875941362462464</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>448.6035528249506</v>
+        <v>430.774613628723</v>
       </c>
       <c r="C11" t="n">
-        <v>1.598329398405316e-09</v>
+        <v>6.006649215178402e-09</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>199.6299906322879</v>
+        <v>229.9347440724797</v>
       </c>
       <c r="C12" t="n">
-        <v>7.111150109474666e-10</v>
+        <v>2.745020322072272e-14</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1147328359995695</v>
+        <v>0.01011852060563226</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1149008608033052</v>
+        <v>0.8668647150649302</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.493872451418507e-05</v>
+        <v>-4.949249468299335e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.238716556892611</v>
+        <v>0.08934229656253881</v>
       </c>
     </row>
     <row r="15">
@@ -1715,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-34.22776876506181</v>
+        <v>-35.45319008207305</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004552467709989539</v>
+        <v>0.0002803533530502082</v>
       </c>
     </row>
     <row r="16">
@@ -1728,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-12.83485006338075</v>
+        <v>-10.00668518664017</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2616942730783157</v>
+        <v>0.3796470952494916</v>
       </c>
     </row>
     <row r="17">
@@ -1741,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2169.959179022465</v>
+        <v>1892.403981507423</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1255438408215853</v>
+        <v>0.1805877423270733</v>
       </c>
     </row>
     <row r="18">
@@ -1754,23 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3880.462317346763</v>
+        <v>-3227.537950332206</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00011422742273654</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-5835.843710434754</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.010196209018281</v>
+        <v>0.0009157618290985003</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10871.29367608828</v>
+        <v>10615.24440188719</v>
       </c>
       <c r="C2" t="n">
-        <v>7.273057703970391e-05</v>
+        <v>0.0001026584142764649</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1722.242549500456</v>
+        <v>1719.734223842046</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3817433174824879</v>
+        <v>0.3824737245713283</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4085.620354498123</v>
+        <v>4072.088969699185</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02670613615449538</v>
+        <v>0.02722210223098358</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5398.067072300627</v>
+        <v>5368.369348486736</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003377379741878313</v>
+        <v>0.003556580668298464</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3758.198324101482</v>
+        <v>-3804.455343328847</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005690024861520273</v>
+        <v>0.005111451723488218</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3437.618258086156</v>
+        <v>-3488.991096996234</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01098423641144446</v>
+        <v>0.009819019905502081</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39.39415103942504</v>
+        <v>42.82816869843671</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6454596293795584</v>
+        <v>0.6167966241127907</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-678.0546401817647</v>
+        <v>-683.8390138070697</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003100659212808123</v>
+        <v>0.002853056774613217</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-52.80203790502037</v>
+        <v>-52.27380732825922</v>
       </c>
       <c r="C10" t="n">
-        <v>2.392810904237521e-07</v>
+        <v>3.083432991094013e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>312.7212512680691</v>
+        <v>304.1420539892191</v>
       </c>
       <c r="C11" t="n">
-        <v>1.915303876422472e-05</v>
+        <v>2.977420528457227e-05</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>260.4568745090302</v>
+        <v>275.2173276857437</v>
       </c>
       <c r="C12" t="n">
-        <v>4.741438080786164e-16</v>
+        <v>3.50851608333286e-20</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0736821798965055</v>
+        <v>0.02262512409526844</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3071071344723711</v>
+        <v>0.7052080984232687</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.44820545227552e-05</v>
+        <v>-4.114606575384631e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2479292387216612</v>
+        <v>0.1613633707752146</v>
       </c>
     </row>
     <row r="15">
@@ -1985,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-35.71336052203162</v>
+        <v>-36.56053444582533</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002305092662459588</v>
+        <v>0.0001575053988909068</v>
       </c>
     </row>
     <row r="16">
@@ -1998,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.116534654419319</v>
+        <v>4.220429900668696</v>
       </c>
       <c r="C16" t="n">
-        <v>0.780437668184368</v>
+        <v>0.7049801674764564</v>
       </c>
     </row>
     <row r="17">
@@ -2011,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>504.9410313919669</v>
+        <v>403.5726886339647</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7162147997811971</v>
+        <v>0.771046160337471</v>
       </c>
     </row>
     <row r="18">
@@ -2024,23 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3854.762593069156</v>
+        <v>-3501.865790319682</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001650589948210544</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-2830.534203159481</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.2057532168128935</v>
+        <v>0.0003746149216519573</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11864.37555292926</v>
+        <v>11544.12384278591</v>
       </c>
       <c r="C2" t="n">
-        <v>6.879124128687726e-05</v>
+        <v>0.0001040932755607455</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2478.900637517433</v>
+        <v>2392.770778442654</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2534751538902741</v>
+        <v>0.2703001794010803</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5165.812267294241</v>
+        <v>5090.995105748727</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01180816917266742</v>
+        <v>0.01308362533330421</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6357.508584461792</v>
+        <v>6258.797956650049</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001925184230024071</v>
+        <v>0.00225714927095388</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5923.039957657588</v>
+        <v>-5965.563116525774</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001473099858526851</v>
+        <v>0.0001321140697040805</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5347.119530744994</v>
+        <v>-5390.769123193214</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0005754637657929955</v>
+        <v>0.0005189774991175844</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-25.34577279778689</v>
+        <v>-19.26880040139302</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7655465571411408</v>
+        <v>0.8205184807939698</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-699.4959214528526</v>
+        <v>-700.6254142901965</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002212186234721514</v>
+        <v>0.002180644546228072</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-39.75706295321588</v>
+        <v>-38.86995378714986</v>
       </c>
       <c r="C10" t="n">
-        <v>8.696019559958244e-05</v>
+        <v>0.000122175859627582</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>451.4153335843592</v>
+        <v>439.2350849393696</v>
       </c>
       <c r="C11" t="n">
-        <v>1.434874110846112e-09</v>
+        <v>3.266459446715592e-09</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>220.0583327096564</v>
+        <v>238.6946827663851</v>
       </c>
       <c r="C12" t="n">
-        <v>5.670067076752811e-12</v>
+        <v>1.280892078035491e-15</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1005232589701743</v>
+        <v>0.03655657697861076</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1622643934082889</v>
+        <v>0.543943855095725</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.746280422790123e-05</v>
+        <v>-5.563546706957665e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1132093551031565</v>
+        <v>0.0597271992708515</v>
       </c>
     </row>
     <row r="15">
@@ -2255,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-23.73599306696987</v>
+        <v>-24.87884045833087</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01338186210700378</v>
+        <v>0.009353592578983962</v>
       </c>
     </row>
     <row r="16">
@@ -2268,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.121597363079159</v>
+        <v>-1.400617482005242</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7725863160662256</v>
+        <v>0.8963556024674861</v>
       </c>
     </row>
     <row r="17">
@@ -2281,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-765.7592682319766</v>
+        <v>-897.5475391863652</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5790577867625877</v>
+        <v>0.5149072208114615</v>
       </c>
     </row>
     <row r="18">
@@ -2294,23 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4769.049750141178</v>
+        <v>-4337.954699921949</v>
       </c>
       <c r="C18" t="n">
-        <v>2.145599195814407e-06</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-3602.963554695805</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1037988844937458</v>
+        <v>7.867995248190462e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2324,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2356,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11800.22608783498</v>
+        <v>11166.97815962504</v>
       </c>
       <c r="C2" t="n">
-        <v>5.260002888013794e-05</v>
+        <v>0.0001234467934911387</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2481.578029336451</v>
+        <v>2564.802476019377</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2513808645195449</v>
+        <v>0.2360948538209307</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4801.129643906509</v>
+        <v>4854.822574582301</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01788512010248842</v>
+        <v>0.0167124465255443</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5933.40153263056</v>
+        <v>5945.701378690181</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003388812055374311</v>
+        <v>0.003344363955331258</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3859.096267513405</v>
+        <v>-3968.681372247313</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007465717559869659</v>
+        <v>0.005947796529729426</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3480.839518700524</v>
+        <v>-3599.796013100664</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01528691793764903</v>
+        <v>0.01214057426479391</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77.99727181028172</v>
+        <v>84.94933122725192</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3722259484400374</v>
+        <v>0.3312119849663624</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-805.6970651109989</v>
+        <v>-805.6380943912275</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0005923439084630773</v>
+        <v>0.0005979671988619028</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-49.13783377588233</v>
+        <v>-47.62946841998041</v>
       </c>
       <c r="C10" t="n">
-        <v>2.30918220432022e-06</v>
+        <v>4.553856557194201e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>414.8859075384431</v>
+        <v>398.3129693680573</v>
       </c>
       <c r="C11" t="n">
-        <v>3.592486655903586e-08</v>
+        <v>1.110235761193206e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>216.2319721930184</v>
+        <v>245.1948215699257</v>
       </c>
       <c r="C12" t="n">
-        <v>3.472099747363022e-11</v>
+        <v>1.007643977010582e-15</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.09201748271259771</v>
+        <v>-0.009166772361642574</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2134650290413403</v>
+        <v>0.8822150470748534</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.62317821981822e-05</v>
+        <v>-4.940716176105615e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2428280731624662</v>
+        <v>0.1062963782216277</v>
       </c>
     </row>
     <row r="15">
@@ -2525,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-24.57772330535082</v>
+        <v>-26.30600659044492</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01269111935138335</v>
+        <v>0.007534760196815551</v>
       </c>
     </row>
     <row r="16">
@@ -2538,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-13.36362104110351</v>
+        <v>-10.70998183092963</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2466001978197815</v>
+        <v>0.3513616047347734</v>
       </c>
     </row>
     <row r="17">
@@ -2551,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25.01273021946304</v>
+        <v>-140.4833336170357</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9861364764591461</v>
+        <v>0.9222252093489951</v>
       </c>
     </row>
     <row r="18">
@@ -2564,23 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4806.076918598039</v>
+        <v>-4128.121244086959</v>
       </c>
       <c r="C18" t="n">
-        <v>3.307634276477966e-06</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-5681.909686026631</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.01268742066969646</v>
+        <v>3.481825902276276e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2626,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13710.23347417718</v>
+        <v>13307.32002809034</v>
       </c>
       <c r="C2" t="n">
-        <v>8.783909892340266e-06</v>
+        <v>1.527839933023505e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>817.3007963837395</v>
+        <v>813.2127403120076</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7298618302144103</v>
+        <v>0.7312380810274767</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2797.087241248252</v>
+        <v>2801.907947838894</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2166201922978294</v>
+        <v>0.21596705173046</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3853.491094469209</v>
+        <v>3825.702483785242</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08842895010361168</v>
+        <v>0.09083820848742864</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4120.186517045476</v>
+        <v>-4213.359272396224</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005186909937018422</v>
+        <v>0.004247176137870437</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3773.069733131574</v>
+        <v>-3877.274781105337</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01008136843302709</v>
+        <v>0.008163290950690547</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39.4526389882198</v>
+        <v>44.12021411352689</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6482544931395489</v>
+        <v>0.6098918684854115</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-544.0167545858694</v>
+        <v>-552.8573347638325</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01838215944067297</v>
+        <v>0.0165784120668514</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-55.98546541535984</v>
+        <v>-54.88050061461435</v>
       </c>
       <c r="C10" t="n">
-        <v>4.4371270455883e-08</v>
+        <v>7.755167040308806e-08</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>353.4625104761414</v>
+        <v>339.7200678174863</v>
       </c>
       <c r="C11" t="n">
-        <v>2.200849836680321e-06</v>
+        <v>4.819679618778366e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>232.1831953376947</v>
+        <v>253.3855425441227</v>
       </c>
       <c r="C12" t="n">
-        <v>5.722085060021477e-13</v>
+        <v>3.614147717670736e-17</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07520278757277528</v>
+        <v>0.0007896516554269234</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3021464266703986</v>
+        <v>0.9895688307948241</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.825349474603833e-05</v>
+        <v>-4.803769220005209e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.20168485147536</v>
+        <v>0.1032958603285576</v>
       </c>
     </row>
     <row r="15">
@@ -2795,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-26.74847470447934</v>
+        <v>-27.87021698258167</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00576467416907141</v>
+        <v>0.003958046724405557</v>
       </c>
     </row>
     <row r="16">
@@ -2808,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-6.166096156776451</v>
+        <v>-4.268946850880514</v>
       </c>
       <c r="C16" t="n">
-        <v>0.571598941325455</v>
+        <v>0.6940759582185116</v>
       </c>
     </row>
     <row r="17">
@@ -2821,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-416.0050546269485</v>
+        <v>-538.1860244242788</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7663745965543927</v>
+        <v>0.7004533000714408</v>
       </c>
     </row>
     <row r="18">
@@ -2834,23 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4594.602487874919</v>
+        <v>-4085.894748676293</v>
       </c>
       <c r="C18" t="n">
-        <v>6.472284471958713e-06</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-4111.388711174568</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.06828162580934542</v>
+        <v>3.040914372264225e-05</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Lille.xlsx
+++ b/outputs/ML_Results/dist_commute/Lille.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ11582248" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ11834022" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ12117066" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ12384375" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ12659367" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ12925385" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ13216031" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ13579884" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ13950349" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ42205185" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ42520273" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ42882774" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ43245895" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ43593004" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ43958527" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ44319856" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ44668089" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ45046431" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12648.90783084643</v>
+        <v>11782.09557862643</v>
       </c>
       <c r="C2" t="n">
-        <v>5.615966727424846e-06</v>
+        <v>2.718028417798022e-05</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1698.662731930877</v>
+        <v>1557.528186570475</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4087405007752908</v>
+        <v>0.4482853395804011</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4070.400878407552</v>
+        <v>4203.694758208203</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03499587752751029</v>
+        <v>0.02948901571658321</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5179.853537787507</v>
+        <v>5336.007432462287</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007224747705664374</v>
+        <v>0.005658810418013686</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4426.586480310089</v>
+        <v>-3697.409957549639</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001280725447753394</v>
+        <v>0.008211492206714306</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3862.621555793243</v>
+        <v>-3147.052936064903</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004719672053742023</v>
+        <v>0.02374063001784003</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85.22297046167662</v>
+        <v>0.4253722026650166</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3230911173653563</v>
+        <v>0.9960704775829614</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-734.4035036683108</v>
+        <v>-620.7136868083263</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0015147954034397</v>
+        <v>0.007442595671133611</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-52.48965593484661</v>
+        <v>-39.646693462946</v>
       </c>
       <c r="C10" t="n">
-        <v>3.547410248470349e-07</v>
+        <v>0.0001366284734049277</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>324.6300870613528</v>
+        <v>382.3244078654257</v>
       </c>
       <c r="C11" t="n">
-        <v>2.037849492533528e-05</v>
+        <v>2.827679869844134e-07</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>259.4125270426649</v>
+        <v>270.0490574343567</v>
       </c>
       <c r="C12" t="n">
-        <v>1.466304233397004e-17</v>
+        <v>4.731638739528686e-19</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.05180582862924572</v>
+        <v>0.03682539739566185</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3933607937963264</v>
+        <v>0.5553487286217604</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.002603303682742e-05</v>
+        <v>-3.794938547988378e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.17210707032499</v>
+        <v>0.1944697984729047</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-37.2133770575443</v>
+        <v>-34.7609362029646</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001435148265017444</v>
+        <v>0.0004506422126068239</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-10.43967518904195</v>
+        <v>-12.23417009764134</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3368373746374845</v>
+        <v>0.2654355337462373</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-594.9524491318252</v>
+        <v>-1494.448877745489</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6752044408088553</v>
+        <v>0.2962860113649103</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3844.30551478189</v>
+        <v>-4401.507157888197</v>
       </c>
       <c r="C18" t="n">
-        <v>9.596803109350417e-05</v>
+        <v>7.933176231451656e-06</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13443.70095450088</v>
+        <v>11282.09645335796</v>
       </c>
       <c r="C2" t="n">
-        <v>9.20982837244233e-07</v>
+        <v>4.062937654885349e-05</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1965.449275827161</v>
+        <v>1521.998981509322</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3230285333071624</v>
+        <v>0.448620875534175</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4315.397337866983</v>
+        <v>3935.635992155161</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02044184999866383</v>
+        <v>0.0350914465553698</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5258.602076711112</v>
+        <v>5224.282903658224</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004669467051424471</v>
+        <v>0.005091346851303575</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4169.135539622871</v>
+        <v>-4242.638684746142</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002391431398531418</v>
+        <v>0.002056828805422782</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3665.250976900602</v>
+        <v>-3746.516388404846</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007270132236092192</v>
+        <v>0.006206116854047134</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>68.86143196578732</v>
+        <v>7.791982039873503</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4259658919022266</v>
+        <v>0.929369626847237</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-698.9831112519472</v>
+        <v>-530.626192267724</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002483914951499269</v>
+        <v>0.0224767329311096</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-50.34949672799279</v>
+        <v>-41.4106858529779</v>
       </c>
       <c r="C10" t="n">
-        <v>8.061210982996745e-07</v>
+        <v>5.307816561142337e-05</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>398.6364093827804</v>
+        <v>479.7346199049967</v>
       </c>
       <c r="C11" t="n">
-        <v>2.057507538111626e-07</v>
+        <v>9.722879201279551e-11</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>277.4382609463305</v>
+        <v>206.7410752045891</v>
       </c>
       <c r="C12" t="n">
-        <v>8.356525864404986e-20</v>
+        <v>1.088293313923998e-11</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.009687688880695641</v>
+        <v>0.001722803920638026</v>
       </c>
       <c r="C13" t="n">
-        <v>0.87209081874501</v>
+        <v>0.9782248007891402</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.969844715942433e-05</v>
+        <v>-7.287027530902544e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1031194284463594</v>
+        <v>0.0117711504099697</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-36.64804013167489</v>
+        <v>-28.57136909538465</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001416528612478708</v>
+        <v>0.003671209911620769</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-22.71906696720689</v>
+        <v>-8.107448276462071</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03667791292401561</v>
+        <v>0.4598036287568954</v>
       </c>
     </row>
     <row r="17">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-23.8936664935739</v>
+        <v>2191.169738269118</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9862956911455733</v>
+        <v>0.1191184755246744</v>
       </c>
     </row>
     <row r="18">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4021.669634787279</v>
+        <v>-3651.491899361979</v>
       </c>
       <c r="C18" t="n">
-        <v>4.321858268314875e-05</v>
+        <v>0.000195481977813071</v>
       </c>
     </row>
   </sheetData>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11677.41794271598</v>
+        <v>12713.62822654802</v>
       </c>
       <c r="C2" t="n">
-        <v>8.743172352299402e-05</v>
+        <v>3.469553799957601e-06</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1060.14251391623</v>
+        <v>2342.749141415484</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6459399450213849</v>
+        <v>0.2448520231966661</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3282.880019588571</v>
+        <v>4054.732452781791</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1348449627516607</v>
+        <v>0.0292480491930807</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4429.305951283275</v>
+        <v>5254.767956726449</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04343158433065206</v>
+        <v>0.004666401102969761</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4107.212048639156</v>
+        <v>-4438.420553671031</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00220688182466562</v>
+        <v>0.001212987661458312</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3643.026455379573</v>
+        <v>-4086.601117107163</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006326459176333447</v>
+        <v>0.002731496765962215</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74.8130377414769</v>
+        <v>165.7589900480303</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3854552126766354</v>
+        <v>0.05770929535942591</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-571.1088857605953</v>
+        <v>-758.2097544325695</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01473092205602333</v>
+        <v>0.001051802063207907</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-45.83373880269905</v>
+        <v>-47.98203244388142</v>
       </c>
       <c r="C10" t="n">
-        <v>9.38541832194923e-06</v>
+        <v>3.190361814454037e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>338.6319659953184</v>
+        <v>390.4579907487503</v>
       </c>
       <c r="C11" t="n">
-        <v>6.214512696087785e-06</v>
+        <v>4.79612049969526e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>242.5728244908996</v>
+        <v>233.3747898242989</v>
       </c>
       <c r="C12" t="n">
-        <v>2.666613752735242e-15</v>
+        <v>1.711359973631139e-14</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01793202113837605</v>
+        <v>-0.03300582269212296</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7676418657181736</v>
+        <v>0.596404495843301</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001056673643318431</v>
+        <v>-7.167728606601698e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0006939152602262184</v>
+        <v>0.01662039563676667</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-26.65610170140094</v>
+        <v>-28.36941386522453</v>
       </c>
       <c r="C15" t="n">
-        <v>0.006337617756676835</v>
+        <v>0.00384412520786358</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4.987399240118025</v>
+        <v>-15.61828753127346</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6547901218081462</v>
+        <v>0.1523606521048596</v>
       </c>
     </row>
     <row r="17">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2155.926805326319</v>
+        <v>-56.90222014254869</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1268099739327182</v>
+        <v>0.9675475005853416</v>
       </c>
     </row>
     <row r="18">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3576.911714909117</v>
+        <v>-3429.186472211467</v>
       </c>
       <c r="C18" t="n">
-        <v>0.000284626534814882</v>
+        <v>0.0004460246696604925</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10841.06219400619</v>
+        <v>9776.503050579569</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001109306542762642</v>
+        <v>0.0009971814721387714</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2191.493267333442</v>
+        <v>2677.756013867479</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2778969163060651</v>
+        <v>0.2236211600398155</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4081.925664393572</v>
+        <v>5201.195943799506</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03052304211098376</v>
+        <v>0.01282173265966476</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5295.04042712762</v>
+        <v>6244.700469637985</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004956275953929748</v>
+        <v>0.002777774766776759</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2868.074756739062</v>
+        <v>-4767.36803360829</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04664848715269381</v>
+        <v>0.001358958060739657</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2469.196371574794</v>
+        <v>-4352.168255677137</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08519819920163936</v>
+        <v>0.003286045492950576</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>68.39059842361669</v>
+        <v>60.98663003587131</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4332453295090188</v>
+        <v>0.4810678300221932</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-698.0818025092669</v>
+        <v>-721.8835340106742</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002888374994430406</v>
+        <v>0.001962109878968644</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-42.94737381807837</v>
+        <v>-46.59374567079765</v>
       </c>
       <c r="C10" t="n">
-        <v>3.106310122902803e-05</v>
+        <v>6.019053480134953e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>366.4528537722207</v>
+        <v>371.590330147231</v>
       </c>
       <c r="C11" t="n">
-        <v>1.368320862087973e-06</v>
+        <v>6.037731319977314e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>231.7749083954257</v>
+        <v>249.9317968548751</v>
       </c>
       <c r="C12" t="n">
-        <v>4.838294385552896e-14</v>
+        <v>3.142263822069051e-16</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.003841153486976976</v>
+        <v>0.02158549358172764</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9496777565484606</v>
+        <v>0.7294649321368248</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.539173421310298e-05</v>
+        <v>-6.521588675925983e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07739405999150194</v>
+        <v>0.02908398684375968</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-31.53388235223278</v>
+        <v>-24.82484248640087</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001297549589284876</v>
+        <v>0.0121518123438358</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-11.08378340048212</v>
+        <v>3.983781584265183</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3223611515011361</v>
+        <v>0.716104797147245</v>
       </c>
     </row>
     <row r="17">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>122.3611153382064</v>
+        <v>124.4852764579679</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9316150845246243</v>
+        <v>0.9291407828930309</v>
       </c>
     </row>
     <row r="18">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3803.860075414477</v>
+        <v>-3659.372546462015</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001245195747118109</v>
+        <v>0.000181080599078642</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11059.40647087106</v>
+        <v>13528.32323390914</v>
       </c>
       <c r="C2" t="n">
-        <v>6.012096593966141e-05</v>
+        <v>2.305481907146544e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1701.026312034097</v>
+        <v>1415.656344643003</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3925965688882508</v>
+        <v>0.5066648821704556</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4098.37529766746</v>
+        <v>3582.094678884256</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02790832938725095</v>
+        <v>0.07482251380996718</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5060.427040768487</v>
+        <v>4589.325566128229</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006573041805074588</v>
+        <v>0.02231329596822556</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4010.885663205006</v>
+        <v>-4114.850561469746</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002979784151676183</v>
+        <v>0.002845125417702373</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3474.517567152585</v>
+        <v>-3662.398242017096</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009674738115428608</v>
+        <v>0.007564689351258621</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.358699325260659</v>
+        <v>-22.78101629716399</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9410641780424813</v>
+        <v>0.7921121571067468</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-891.1335168008877</v>
+        <v>-873.4908905770521</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001209649892308921</v>
+        <v>0.0001781034978940452</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-29.78008026750425</v>
+        <v>-58.96193519189228</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003875941362462464</v>
+        <v>1.253163344009959e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>430.774613628723</v>
+        <v>300.2502305502369</v>
       </c>
       <c r="C11" t="n">
-        <v>6.006649215178402e-09</v>
+        <v>5.639994921472496e-05</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>229.9347440724797</v>
+        <v>267.7250996035899</v>
       </c>
       <c r="C12" t="n">
-        <v>2.745020322072272e-14</v>
+        <v>2.226842135618916e-18</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01011852060563226</v>
+        <v>-0.04944007682291494</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8668647150649302</v>
+        <v>0.4284224597954484</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.949249468299335e-05</v>
+        <v>-4.248798551163243e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08934229656253881</v>
+        <v>0.1614188888471871</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-35.45319008207305</v>
+        <v>-33.37884884347048</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002803533530502082</v>
+        <v>0.0006409268032006336</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-10.00668518664017</v>
+        <v>-9.803122038935332</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3796470952494916</v>
+        <v>0.3695201140600999</v>
       </c>
     </row>
     <row r="17">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1892.403981507423</v>
+        <v>-100.2298789082575</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1805877423270733</v>
+        <v>0.9426225422514727</v>
       </c>
     </row>
     <row r="18">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3227.537950332206</v>
+        <v>-3095.308173150591</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0009157618290985003</v>
+        <v>0.001535015448831804</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10615.24440188719</v>
+        <v>10942.49031408806</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001026584142764649</v>
+        <v>0.0002809969302003682</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1719.734223842046</v>
+        <v>2513.882831274617</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3824737245713283</v>
+        <v>0.2705567976686</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4072.088969699185</v>
+        <v>4858.146635680346</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02722210223098358</v>
+        <v>0.02529258283590902</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5368.369348486736</v>
+        <v>5973.654034687112</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003556580668298464</v>
+        <v>0.005901765886518587</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3804.455343328847</v>
+        <v>-4114.196574341519</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005111451723488218</v>
+        <v>0.003839250589653917</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3488.991096996234</v>
+        <v>-3678.323656615116</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009819019905502081</v>
+        <v>0.009335148563958753</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.82816869843671</v>
+        <v>22.03580715890436</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6167966241127907</v>
+        <v>0.7972903301362771</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-683.8390138070697</v>
+        <v>-832.4573030343412</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002853056774613217</v>
+        <v>0.0003363902960630542</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-52.27380732825922</v>
+        <v>-45.64052574641524</v>
       </c>
       <c r="C10" t="n">
-        <v>3.083432991094013e-07</v>
+        <v>9.098068923201642e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>304.1420539892191</v>
+        <v>432.5754630205481</v>
       </c>
       <c r="C11" t="n">
-        <v>2.977420528457227e-05</v>
+        <v>4.736025021318244e-09</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>275.2173276857437</v>
+        <v>249.2298651342882</v>
       </c>
       <c r="C12" t="n">
-        <v>3.50851608333286e-20</v>
+        <v>2.392519981416908e-16</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02262512409526844</v>
+        <v>-0.01357533264844596</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7052080984232687</v>
+        <v>0.8251869112805543</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.114606575384631e-05</v>
+        <v>-3.970874076725856e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1613633707752146</v>
+        <v>0.1907393629363717</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-36.56053444582533</v>
+        <v>-27.65980652504476</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001575053988909068</v>
+        <v>0.004498850391635778</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.220429900668696</v>
+        <v>-9.76915306349591</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7049801674764564</v>
+        <v>0.3949196696654158</v>
       </c>
     </row>
     <row r="17">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>403.5726886339647</v>
+        <v>309.9740972950447</v>
       </c>
       <c r="C17" t="n">
-        <v>0.771046160337471</v>
+        <v>0.823824841343414</v>
       </c>
     </row>
     <row r="18">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3501.865790319682</v>
+        <v>-3754.38038221632</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0003746149216519573</v>
+        <v>0.000118590642896833</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11544.12384278591</v>
+        <v>11262.07689035813</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001040932755607455</v>
+        <v>5.084760465739077e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2392.770778442654</v>
+        <v>1860.224305192092</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2703001794010803</v>
+        <v>0.3521847162552961</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5090.995105748727</v>
+        <v>4109.35481095553</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01308362533330421</v>
+        <v>0.02860489948571213</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6258.797956650049</v>
+        <v>5156.836048095686</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00225714927095388</v>
+        <v>0.005943693387562564</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5965.563116525774</v>
+        <v>-3438.785375861796</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001321140697040805</v>
+        <v>0.01460336125260315</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5390.769123193214</v>
+        <v>-2979.274327437626</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0005189774991175844</v>
+        <v>0.03338102261695874</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-19.26880040139302</v>
+        <v>110.3418991570455</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8205184807939698</v>
+        <v>0.2051151383151058</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-700.6254142901965</v>
+        <v>-555.9009143827668</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002180644546228072</v>
+        <v>0.01750924909893313</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-38.86995378714986</v>
+        <v>-46.06543608331688</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000122175859627582</v>
+        <v>9.832022373101346e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>439.2350849393696</v>
+        <v>324.6166788095049</v>
       </c>
       <c r="C11" t="n">
-        <v>3.266459446715592e-09</v>
+        <v>1.508439759622916e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>238.6946827663851</v>
+        <v>274.5950547807466</v>
       </c>
       <c r="C12" t="n">
-        <v>1.280892078035491e-15</v>
+        <v>2.428053564160462e-19</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03655657697861076</v>
+        <v>-0.05643183585086521</v>
       </c>
       <c r="C13" t="n">
-        <v>0.543943855095725</v>
+        <v>0.3693359338086695</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.563546706957665e-05</v>
+        <v>-1.484146548412973e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0597271992708515</v>
+        <v>0.636520010599591</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-24.87884045833087</v>
+        <v>-26.21440637210842</v>
       </c>
       <c r="C15" t="n">
-        <v>0.009353592578983962</v>
+        <v>0.008424055149812018</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.400617482005242</v>
+        <v>-12.44160561360548</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8963556024674861</v>
+        <v>0.26280348661708</v>
       </c>
     </row>
     <row r="17">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-897.5475391863652</v>
+        <v>-439.0534050161071</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5149072208114615</v>
+        <v>0.7538779407518753</v>
       </c>
     </row>
     <row r="18">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4337.954699921949</v>
+        <v>-3878.005416911556</v>
       </c>
       <c r="C18" t="n">
-        <v>7.867995248190462e-06</v>
+        <v>9.29012892323587e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11166.97815962504</v>
+        <v>11559.05751447067</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001234467934911387</v>
+        <v>0.0001816968091514431</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2564.802476019377</v>
+        <v>547.9253335956796</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2360948538209307</v>
+        <v>0.8179601473472831</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4854.822574582301</v>
+        <v>2769.384151799854</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0167124465255443</v>
+        <v>0.2238286548649386</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5945.701378690181</v>
+        <v>3866.68651205426</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003344363955331258</v>
+        <v>0.08911332706596582</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3968.681372247313</v>
+        <v>-4140.050722216851</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005947796529729426</v>
+        <v>0.005208631576146394</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3599.796013100664</v>
+        <v>-3667.971436482402</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01214057426479391</v>
+        <v>0.01291008914452415</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84.94933122725192</v>
+        <v>19.2214718617352</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3312119849663624</v>
+        <v>0.8225089602323703</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-805.6380943912275</v>
+        <v>-604.5804662869923</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0005979671988619028</v>
+        <v>0.009132678516656396</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-47.62946841998041</v>
+        <v>-41.66042854511921</v>
       </c>
       <c r="C10" t="n">
-        <v>4.553856557194201e-06</v>
+        <v>4.57482505938195e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>398.3129693680573</v>
+        <v>320.1602624489276</v>
       </c>
       <c r="C11" t="n">
-        <v>1.110235761193206e-07</v>
+        <v>2.041451735700028e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>245.1948215699257</v>
+        <v>236.9608987090243</v>
       </c>
       <c r="C12" t="n">
-        <v>1.007643977010582e-15</v>
+        <v>7.328719433605546e-15</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.009166772361642574</v>
+        <v>-0.03621661388754497</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8822150470748534</v>
+        <v>0.5568888657449341</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.940716176105615e-05</v>
+        <v>-6.707852595318221e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1062963782216277</v>
+        <v>0.02526150928457651</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-26.30600659044492</v>
+        <v>-25.59185746669817</v>
       </c>
       <c r="C15" t="n">
-        <v>0.007534760196815551</v>
+        <v>0.009871284820353749</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-10.70998183092963</v>
+        <v>7.442297851864724</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3513616047347734</v>
+        <v>0.5114194477657594</v>
       </c>
     </row>
     <row r="17">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-140.4833336170357</v>
+        <v>442.3681430018362</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9222252093489951</v>
+        <v>0.749626665472263</v>
       </c>
     </row>
     <row r="18">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4128.121244086959</v>
+        <v>-3627.588587018719</v>
       </c>
       <c r="C18" t="n">
-        <v>3.481825902276276e-05</v>
+        <v>0.0002115341262500987</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13307.32002809034</v>
+        <v>12521.8430430377</v>
       </c>
       <c r="C2" t="n">
-        <v>1.527839933023505e-05</v>
+        <v>6.263483666290028e-06</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>813.2127403120076</v>
+        <v>1972.242800207053</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7312380810274767</v>
+        <v>0.3204892023793005</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2801.907947838894</v>
+        <v>4121.400708811791</v>
       </c>
       <c r="C4" t="n">
-        <v>0.21596705173046</v>
+        <v>0.02677934034110587</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3825.702483785242</v>
+        <v>5152.120751863811</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09083820848742864</v>
+        <v>0.005569355240564608</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4213.359272396224</v>
+        <v>-4410.286582521801</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004247176137870437</v>
+        <v>0.001306141194700565</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3877.274781105337</v>
+        <v>-3869.976901599464</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008163290950690547</v>
+        <v>0.004549667533056995</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.12021411352689</v>
+        <v>36.95984924536936</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6098918684854115</v>
+        <v>0.6660434619688747</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-552.8573347638325</v>
+        <v>-758.350057354407</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0165784120668514</v>
+        <v>0.001060819232820202</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-54.88050061461435</v>
+        <v>-54.34616426945067</v>
       </c>
       <c r="C10" t="n">
-        <v>7.755167040308806e-08</v>
+        <v>1.013808887608403e-07</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>339.7200678174863</v>
+        <v>345.0382571946057</v>
       </c>
       <c r="C11" t="n">
-        <v>4.819679618778366e-06</v>
+        <v>4.223614425840039e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>253.3855425441227</v>
+        <v>247.5847969052966</v>
       </c>
       <c r="C12" t="n">
-        <v>3.614147717670736e-17</v>
+        <v>2.592376655920242e-16</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0007896516554269234</v>
+        <v>-0.03779729870167278</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9895688307948241</v>
+        <v>0.5403976607172096</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.803769220005209e-05</v>
+        <v>-5.440283770657347e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1032958603285576</v>
+        <v>0.06318256158740074</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-27.87021698258167</v>
+        <v>-28.65870605211205</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003958046724405557</v>
+        <v>0.003831264125006924</v>
       </c>
     </row>
     <row r="16">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4.268946850880514</v>
+        <v>-9.988267868568853</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6940759582185116</v>
+        <v>0.3862715458979384</v>
       </c>
     </row>
     <row r="17">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-538.1860244242788</v>
+        <v>1139.971903813571</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7004533000714408</v>
+        <v>0.4108784791543565</v>
       </c>
     </row>
     <row r="18">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4085.894748676293</v>
+        <v>-3581.12232093639</v>
       </c>
       <c r="C18" t="n">
-        <v>3.040914372264225e-05</v>
+        <v>0.0002256464016851174</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Lille.xlsx
+++ b/outputs/ML_Results/dist_commute/Lille.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ42205185" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ42520273" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ42882774" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ43245895" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ43593004" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ43958527" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ44319856" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ44668089" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ45046431" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ34534036" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ34900327" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ35250164" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ35655179" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ36002040" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ36338418" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ36671391" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ37020463" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ37365029" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_commute/Lille.xlsx
+++ b/outputs/ML_Results/dist_commute/Lille.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ34534036" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ34900327" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ35250164" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ35655179" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ36002040" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ36338418" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ36671391" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ37020463" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ37365029" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ36871188" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ37178645" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ37549318" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ37941490" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ38321077" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ38743612" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ39135397" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ39530276" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ39918145" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11782.09557862643</v>
+        <v>10056.992083934</v>
       </c>
       <c r="C2" t="n">
-        <v>2.718028417798022e-05</v>
+        <v>0.0002027953160554666</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1557.528186570475</v>
+        <v>1534.566363751216</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4482853395804011</v>
+        <v>0.4562678511395367</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4203.694758208203</v>
+        <v>4002.742705568892</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02948901571658321</v>
+        <v>0.03854091719603555</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5336.007432462287</v>
+        <v>5129.285712308171</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005658810418013686</v>
+        <v>0.007940989398389572</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3697.409957549639</v>
+        <v>-4455.96223335785</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008211492206714306</v>
+        <v>0.001215811478661747</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3147.052936064903</v>
+        <v>-3893.237453131989</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02374063001784003</v>
+        <v>0.004480978396686238</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4253722026650166</v>
+        <v>75.57870998162937</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9960704775829614</v>
+        <v>0.3819225013645979</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-620.7136868083263</v>
+        <v>-722.26970376448</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007442595671133611</v>
+        <v>0.001849377457916268</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-39.646693462946</v>
+        <v>-52.22494944339577</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001366284734049277</v>
+        <v>4.317354847762057e-07</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.3244078654257</v>
+        <v>403.595141630207</v>
       </c>
       <c r="C11" t="n">
-        <v>2.827679869844134e-07</v>
+        <v>4.537890925271352e-08</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>270.0490574343567</v>
+        <v>250.917970440709</v>
       </c>
       <c r="C12" t="n">
-        <v>4.731638739528686e-19</v>
+        <v>2.031039597461412e-16</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03682539739566185</v>
+        <v>-0.111474801597455</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5553487286217604</v>
+        <v>0.04853700147888995</v>
       </c>
     </row>
     <row r="14">
@@ -622,62 +622,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.794938547988378e-05</v>
+        <v>-5.586541908168734e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1944697984729047</v>
+        <v>0.04767783850576024</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-34.7609362029646</v>
+        <v>5.352169356069645</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004506422126068239</v>
+        <v>0.5947265218691171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-12.23417009764134</v>
+        <v>-1510.604281056705</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2654355337462373</v>
+        <v>0.2720270132911501</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1494.448877745489</v>
+        <v>-4037.974730754986</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2962860113649103</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-4401.507157888197</v>
-      </c>
-      <c r="C18" t="n">
-        <v>7.933176231451656e-06</v>
+        <v>1.267817106877542e-05</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11282.09645335796</v>
+        <v>10929.35910322236</v>
       </c>
       <c r="C2" t="n">
-        <v>4.062937654885349e-05</v>
+        <v>4.095113535892049e-05</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1521.998981509322</v>
+        <v>1807.399251905551</v>
       </c>
       <c r="C3" t="n">
-        <v>0.448620875534175</v>
+        <v>0.3643112184092451</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3935.635992155161</v>
+        <v>4183.173671033339</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0350914465553698</v>
+        <v>0.02492504392062476</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5224.282903658224</v>
+        <v>5159.264912635957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005091346851303575</v>
+        <v>0.005607666849665026</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4242.638684746142</v>
+        <v>-4207.178368885814</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002056828805422782</v>
+        <v>0.002224067457741039</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3746.516388404846</v>
+        <v>-3713.970267407395</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006206116854047134</v>
+        <v>0.006635301083750727</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.791982039873503</v>
+        <v>63.45019151040727</v>
       </c>
       <c r="C8" t="n">
-        <v>0.929369626847237</v>
+        <v>0.4640966662946816</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-530.626192267724</v>
+        <v>-678.3845242905086</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0224767329311096</v>
+        <v>0.003374656944468159</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-41.4106858529779</v>
+        <v>-49.93305566151165</v>
       </c>
       <c r="C10" t="n">
-        <v>5.307816561142337e-05</v>
+        <v>1.054331424223302e-06</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>479.7346199049967</v>
+        <v>475.8890767226719</v>
       </c>
       <c r="C11" t="n">
-        <v>9.722879201279551e-11</v>
+        <v>1.641643635831339e-10</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>206.7410752045891</v>
+        <v>270.5780290860424</v>
       </c>
       <c r="C12" t="n">
-        <v>1.088293313923998e-11</v>
+        <v>8.793211401741868e-19</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.001722803920638026</v>
+        <v>-0.1385279232108226</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9782248007891402</v>
+        <v>0.01369078986053402</v>
       </c>
     </row>
     <row r="14">
@@ -879,62 +866,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.287027530902544e-05</v>
+        <v>-6.73386840529859e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0117711504099697</v>
+        <v>0.02217217728884492</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-28.57136909538465</v>
+        <v>-7.124973541726535</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003671209911620769</v>
+        <v>0.480744005208643</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-8.107448276462071</v>
+        <v>-973.4995144892208</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4598036287568954</v>
+        <v>0.4697283406471885</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2191.169738269118</v>
+        <v>-4349.536317726182</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1191184755246744</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3651.491899361979</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.000195481977813071</v>
+        <v>2.582715934722155e-06</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12713.62822654802</v>
+        <v>9879.729322028938</v>
       </c>
       <c r="C2" t="n">
-        <v>3.469553799957601e-06</v>
+        <v>0.0006608034341356715</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2342.749141415484</v>
+        <v>887.7712499846408</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2448520231966661</v>
+        <v>0.7006945478611626</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4054.732452781791</v>
+        <v>3143.440964994156</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0292480491930807</v>
+        <v>0.1526863088468421</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5254.767956726449</v>
+        <v>4308.518240410782</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004666401102969761</v>
+        <v>0.04973694917171735</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4438.420553671031</v>
+        <v>-4141.482259983952</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001212987661458312</v>
+        <v>0.002045456528452207</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4086.601117107163</v>
+        <v>-3671.308896398684</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002731496765962215</v>
+        <v>0.005979192520800981</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>165.7589900480303</v>
+        <v>69.67622270359212</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05770929535942591</v>
+        <v>0.4191206075082959</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-758.2097544325695</v>
+        <v>-559.7596473903019</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001051802063207907</v>
+        <v>0.01693489047051805</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-47.98203244388142</v>
+        <v>-46.24307953281767</v>
       </c>
       <c r="C10" t="n">
-        <v>3.190361814454037e-06</v>
+        <v>8.065061960093008e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.4579907487503</v>
+        <v>392.8167670289305</v>
       </c>
       <c r="C11" t="n">
-        <v>4.79612049969526e-07</v>
+        <v>6.634725418498595e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>233.3747898242989</v>
+        <v>234.9668106095907</v>
       </c>
       <c r="C12" t="n">
-        <v>1.711359973631139e-14</v>
+        <v>2.247584337622184e-14</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03300582269212296</v>
+        <v>-0.1170586261835765</v>
       </c>
       <c r="C13" t="n">
-        <v>0.596404495843301</v>
+        <v>0.03909633240003179</v>
       </c>
     </row>
     <row r="14">
@@ -1136,62 +1110,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.167728606601698e-05</v>
+        <v>-0.0001133428237632005</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01662039563676667</v>
+        <v>0.0001540346763155788</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-28.36941386522453</v>
+        <v>6.452034713317214</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00384412520786358</v>
+        <v>0.5321012635750466</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-15.61828753127346</v>
+        <v>1631.888262136331</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1523606521048596</v>
+        <v>0.2316904364814822</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-56.90222014254869</v>
+        <v>-3437.755189965466</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9675475005853416</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3429.186472211467</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0004460246696604925</v>
+        <v>0.0002044470696980921</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9776.503050579569</v>
+        <v>8655.423287205898</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0009971814721387714</v>
+        <v>0.001496645399674029</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2677.756013867479</v>
+        <v>2021.547574206704</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2236211600398155</v>
+        <v>0.3173827595703896</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5201.195943799506</v>
+        <v>3956.089581267337</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01282173265966476</v>
+        <v>0.03629428639026627</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6244.700469637985</v>
+        <v>5192.449572469222</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002777774766776759</v>
+        <v>0.005930889107819641</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4767.36803360829</v>
+        <v>-2910.698345158368</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001358958060739657</v>
+        <v>0.04374308725709869</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4352.168255677137</v>
+        <v>-2508.285786228974</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003286045492950576</v>
+        <v>0.08075710800081817</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60.98663003587131</v>
+        <v>68.79502086062823</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4810678300221932</v>
+        <v>0.430549792782186</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-721.8835340106742</v>
+        <v>-682.6372724948924</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001962109878968644</v>
+        <v>0.003615005464521706</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-46.59374567079765</v>
+        <v>-42.26508208232508</v>
       </c>
       <c r="C10" t="n">
-        <v>6.019053480134953e-06</v>
+        <v>4.177428190788703e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>371.590330147231</v>
+        <v>426.0048258327693</v>
       </c>
       <c r="C11" t="n">
-        <v>6.037731319977314e-07</v>
+        <v>8.572588913998392e-09</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>249.9317968548751</v>
+        <v>223.8732215107936</v>
       </c>
       <c r="C12" t="n">
-        <v>3.142263822069051e-16</v>
+        <v>3.999988264982717e-13</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02158549358172764</v>
+        <v>-0.1501057280334942</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7294649321368248</v>
+        <v>0.008196098578959227</v>
       </c>
     </row>
     <row r="14">
@@ -1393,62 +1354,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.521588675925983e-05</v>
+        <v>-6.787154069431471e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02908398684375968</v>
+        <v>0.02447546573289783</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-24.82484248640087</v>
+        <v>2.624059431869216</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0121518123438358</v>
+        <v>0.8002972213430639</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.983781584265183</v>
+        <v>-601.0668115135857</v>
       </c>
       <c r="C16" t="n">
-        <v>0.716104797147245</v>
+        <v>0.6617614831289627</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>124.4852764579679</v>
+        <v>-3884.516874908058</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9291407828930309</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3659.372546462015</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.000181080599078642</v>
+        <v>2.842180934936492e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1494,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13528.32323390914</v>
+        <v>8587.001377231321</v>
       </c>
       <c r="C2" t="n">
-        <v>2.305481907146544e-06</v>
+        <v>0.001318875485328288</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1415.656344643003</v>
+        <v>1482.02181536434</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5066648821704556</v>
+        <v>0.4569478187308719</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3582.094678884256</v>
+        <v>3975.773011150467</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07482251380996718</v>
+        <v>0.03323478306866465</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4589.325566128229</v>
+        <v>4949.929706207204</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02231329596822556</v>
+        <v>0.007956030633202585</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4114.850561469746</v>
+        <v>-4074.494656060759</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002845125417702373</v>
+        <v>0.002592169751472584</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3662.398242017096</v>
+        <v>-3553.294650827018</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007564689351258621</v>
+        <v>0.00824254666884284</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-22.78101629716399</v>
+        <v>-6.396296713103951</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7921121571067468</v>
+        <v>0.9407553373886113</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-873.4908905770521</v>
+        <v>-874.3952358019999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001781034978940452</v>
+        <v>0.0001652888452716155</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-58.96193519189228</v>
+        <v>-28.79836383087202</v>
       </c>
       <c r="C10" t="n">
-        <v>1.253163344009959e-08</v>
+        <v>0.005245266552359037</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>300.2502305502369</v>
+        <v>502.2352260280394</v>
       </c>
       <c r="C11" t="n">
-        <v>5.639994921472496e-05</v>
+        <v>2.615311103150809e-12</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>267.7250996035899</v>
+        <v>221.7691344821577</v>
       </c>
       <c r="C12" t="n">
-        <v>2.226842135618916e-18</v>
+        <v>2.579116015275738e-13</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04944007682291494</v>
+        <v>-0.1436217324408769</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4284224597954484</v>
+        <v>0.01019330285735237</v>
       </c>
     </row>
     <row r="14">
@@ -1650,62 +1598,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.248798551163243e-05</v>
+        <v>-6.500001641285406e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1614188888471871</v>
+        <v>0.0204602065965831</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-33.37884884347048</v>
+        <v>5.723579502464222</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0006409268032006336</v>
+        <v>0.5868501921325613</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-9.803122038935332</v>
+        <v>945.7880243982943</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3695201140600999</v>
+        <v>0.4878272353156612</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-100.2298789082575</v>
+        <v>-3441.698465957162</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9426225422514727</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3095.308173150591</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.001535015448831804</v>
+        <v>0.0001663059180127482</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10942.49031408806</v>
+        <v>8003.193413721046</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002809969302003682</v>
+        <v>0.002525689289701087</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2513.882831274617</v>
+        <v>1508.060952233441</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2705567976686</v>
+        <v>0.444491844724543</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4858.146635680346</v>
+        <v>3933.574409671146</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02529258283590902</v>
+        <v>0.03324858809390013</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5973.654034687112</v>
+        <v>5250.968465982195</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005901765886518587</v>
+        <v>0.00443086123027057</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4114.196574341519</v>
+        <v>-3854.104820290284</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003839250589653917</v>
+        <v>0.00463551172154533</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3678.323656615116</v>
+        <v>-3538.498936528417</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009335148563958753</v>
+        <v>0.008949856334193085</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03580715890436</v>
+        <v>46.95339685862686</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7972903301362771</v>
+        <v>0.5834807883382485</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-832.4573030343412</v>
+        <v>-652.5817473955523</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003363902960630542</v>
+        <v>0.004459952498228874</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-45.64052574641524</v>
+        <v>-51.29819354848442</v>
       </c>
       <c r="C10" t="n">
-        <v>9.098068923201642e-06</v>
+        <v>5.216416363073737e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>432.5754630205481</v>
+        <v>374.9665552819139</v>
       </c>
       <c r="C11" t="n">
-        <v>4.736025021318244e-09</v>
+        <v>1.210523051451283e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>249.2298651342882</v>
+        <v>267.7427867263508</v>
       </c>
       <c r="C12" t="n">
-        <v>2.392519981416908e-16</v>
+        <v>4.718149413264203e-19</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01357533264844596</v>
+        <v>-0.1348538508039362</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8251869112805543</v>
+        <v>0.01597631397843681</v>
       </c>
     </row>
     <row r="14">
@@ -1907,62 +1842,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.970874076725856e-05</v>
+        <v>-5.591481262586626e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1907393629363717</v>
+        <v>0.04840185315481514</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-27.65980652504476</v>
+        <v>20.39884133929066</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004498850391635778</v>
+        <v>0.04804758240863256</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-9.76915306349591</v>
+        <v>-510.9907211510516</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3949196696654158</v>
+        <v>0.7024231124140311</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>309.9740972950447</v>
+        <v>-3695.057427922176</v>
       </c>
       <c r="C17" t="n">
-        <v>0.823824841343414</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3754.38038221632</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.000118590642896833</v>
+        <v>6.163693569400699e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2008,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11262.07689035813</v>
+        <v>9827.518537201031</v>
       </c>
       <c r="C2" t="n">
-        <v>5.084760465739077e-05</v>
+        <v>0.0007275811416530054</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1860.224305192092</v>
+        <v>2371.376830767129</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3521847162552961</v>
+        <v>0.2751630474562854</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +1956,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4109.35481095553</v>
+        <v>5049.074775029767</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02860489948571213</v>
+        <v>0.01397332762918849</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +1969,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5156.836048095686</v>
+        <v>6227.011116772055</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005943693387562564</v>
+        <v>0.002407380077234483</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3438.785375861796</v>
+        <v>-6073.967072330591</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01460336125260315</v>
+        <v>0.0001008379692739931</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2979.274327437626</v>
+        <v>-5493.932607497203</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03338102261695874</v>
+        <v>0.0004094582762236377</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>110.3418991570455</v>
+        <v>-22.86310914441138</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2051151383151058</v>
+        <v>0.7879032675173107</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-555.9009143827668</v>
+        <v>-682.7567882514481</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01750924909893313</v>
+        <v>0.00283421197137023</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-46.06543608331688</v>
+        <v>-39.14650839857129</v>
       </c>
       <c r="C10" t="n">
-        <v>9.832022373101346e-06</v>
+        <v>0.000113181245077257</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>324.6166788095049</v>
+        <v>492.5359471177584</v>
       </c>
       <c r="C11" t="n">
-        <v>1.508439759622916e-05</v>
+        <v>8.400518057835386e-12</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2060,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>274.5950547807466</v>
+        <v>233.0223263822163</v>
       </c>
       <c r="C12" t="n">
-        <v>2.428053564160462e-19</v>
+        <v>7.088336921265195e-15</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.05643183585086521</v>
+        <v>-0.08525274165173131</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3693359338086695</v>
+        <v>0.1298509336622782</v>
       </c>
     </row>
     <row r="14">
@@ -2164,62 +2086,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.484146548412973e-05</v>
+        <v>-6.295414290696246e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.636520010599591</v>
+        <v>0.02696186857562866</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-26.21440637210842</v>
+        <v>9.203570675997771</v>
       </c>
       <c r="C15" t="n">
-        <v>0.008424055149812018</v>
+        <v>0.3562177053953515</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-12.44160561360548</v>
+        <v>-1380.664975093714</v>
       </c>
       <c r="C16" t="n">
-        <v>0.26280348661708</v>
+        <v>0.3003591162662218</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-439.0534050161071</v>
+        <v>-4255.456672724589</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7538779407518753</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3878.005416911556</v>
-      </c>
-      <c r="C18" t="n">
-        <v>9.29012892323587e-05</v>
+        <v>2.948660069759136e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2233,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2265,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11559.05751447067</v>
+        <v>9406.487679562202</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001816968091514431</v>
+        <v>0.0008914448171258324</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>547.9253335956796</v>
+        <v>2394.234139479879</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8179601473472831</v>
+        <v>0.2689627750720742</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2200,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2769.384151799854</v>
+        <v>4728.512959992271</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2238286548649386</v>
+        <v>0.01987254059563298</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2213,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3866.68651205426</v>
+        <v>5844.484072279531</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08911332706596582</v>
+        <v>0.00395591014184364</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4140.050722216851</v>
+        <v>-3965.92349028968</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005208631576146394</v>
+        <v>0.006026083641743432</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3667.971436482402</v>
+        <v>-3590.853772612483</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01291008914452415</v>
+        <v>0.01243229408285742</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.2214718617352</v>
+        <v>86.02513634172971</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8225089602323703</v>
+        <v>0.3253182828206715</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-604.5804662869923</v>
+        <v>-791.9277697930679</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009132678516656396</v>
+        <v>0.0007458695278697193</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-41.66042854511921</v>
+        <v>-48.6290637447744</v>
       </c>
       <c r="C10" t="n">
-        <v>4.57482505938195e-05</v>
+        <v>3.020876834590073e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>320.1602624489276</v>
+        <v>448.2762389949948</v>
       </c>
       <c r="C11" t="n">
-        <v>2.041451735700028e-05</v>
+        <v>8.276008329294523e-10</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2304,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>236.9608987090243</v>
+        <v>239.6281175463633</v>
       </c>
       <c r="C12" t="n">
-        <v>7.328719433605546e-15</v>
+        <v>5.256383052611509e-15</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03621661388754497</v>
+        <v>-0.138874596057412</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5568888657449341</v>
+        <v>0.01525158892405881</v>
       </c>
     </row>
     <row r="14">
@@ -2421,62 +2330,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.707852595318221e-05</v>
+        <v>-5.74441353399595e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02526150928457651</v>
+        <v>0.05170031759945738</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-25.59185746669817</v>
+        <v>0.3874612332487457</v>
       </c>
       <c r="C15" t="n">
-        <v>0.009871284820353749</v>
+        <v>0.971073927046757</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.442297851864724</v>
+        <v>-672.7633382203594</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5114194477657594</v>
+        <v>0.6289543194588421</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>442.3681430018362</v>
+        <v>-4148.457839777642</v>
       </c>
       <c r="C17" t="n">
-        <v>0.749626665472263</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3627.588587018719</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0002115341262500987</v>
+        <v>9.370165869646177e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2522,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12521.8430430377</v>
+        <v>11614.66731952349</v>
       </c>
       <c r="C2" t="n">
-        <v>6.263483666290028e-06</v>
+        <v>0.0001161333523067989</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1972.242800207053</v>
+        <v>595.2548578667108</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3204892023793005</v>
+        <v>0.8015570792635039</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2444,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4121.400708811791</v>
+        <v>2641.785321098265</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02677934034110587</v>
+        <v>0.2436675878453325</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2457,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5152.120751863811</v>
+        <v>3688.038649920831</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005569355240564608</v>
+        <v>0.1033081941257167</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4410.286582521801</v>
+        <v>-4284.025387772959</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001306141194700565</v>
+        <v>0.003670221673520272</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3869.976901599464</v>
+        <v>-3952.327290414087</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004549667533056995</v>
+        <v>0.007047508448409165</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.95984924536936</v>
+        <v>48.13407577040736</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6660434619688747</v>
+        <v>0.5776715860159123</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-758.350057354407</v>
+        <v>-531.2932166034971</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001060819232820202</v>
+        <v>0.02134800239472302</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-54.34616426945067</v>
+        <v>-53.78625037352536</v>
       </c>
       <c r="C10" t="n">
-        <v>1.013808887608403e-07</v>
+        <v>1.40380346339146e-07</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>345.0382571946057</v>
+        <v>390.5622591642515</v>
       </c>
       <c r="C11" t="n">
-        <v>4.223614425840039e-06</v>
+        <v>6.166108212507513e-08</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2548,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>247.5847969052966</v>
+        <v>248.6262585100704</v>
       </c>
       <c r="C12" t="n">
-        <v>2.592376655920242e-16</v>
+        <v>1.712849904964262e-16</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03779729870167278</v>
+        <v>-0.09838760240647218</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5403976607172096</v>
+        <v>0.07659700854677903</v>
       </c>
     </row>
     <row r="14">
@@ -2678,62 +2574,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.440283770657347e-05</v>
+        <v>-6.518562327552968e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06318256158740074</v>
+        <v>0.02173871126672567</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-28.65870605211205</v>
+        <v>7.154764073284158</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003831264125006924</v>
+        <v>0.4755564337149812</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-9.988267868568853</v>
+        <v>-1421.423071086519</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3862715458979384</v>
+        <v>0.2926508624446199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1139.971903813571</v>
+        <v>-4682.082041110527</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4108784791543565</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3581.12232093639</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0002256464016851174</v>
+        <v>3.892503171350553e-07</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Lille.xlsx
+++ b/outputs/ML_Results/dist_commute/Lille.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ36871188" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ37178645" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ37549318" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ37941490" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ38321077" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ38743612" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ39135397" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ39530276" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ39918145" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ01199996" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ01482781" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ01815539" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ02108362" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ02405137" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ02694820" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ02993431" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ03287751" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ03577960" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10056.992083934</v>
+        <v>10056.99208458449</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002027953160554666</v>
+        <v>0.0002027953152504062</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1534.566363751216</v>
+        <v>1534.566363749842</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4562678511395367</v>
+        <v>0.4562678511394836</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4002.742705568892</v>
+        <v>4002.742705679516</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03854091719603555</v>
+        <v>0.03854091720444537</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5129.285712308171</v>
+        <v>5129.285712313749</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007940989398389572</v>
+        <v>0.007940989398506139</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4455.96223335785</v>
+        <v>-4455.962233225629</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001215811478661747</v>
+        <v>0.001215811479070985</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3893.237453131989</v>
+        <v>-3893.237452941843</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004480978396686238</v>
+        <v>0.004480978398625777</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.57870998162937</v>
+        <v>75.57870987543598</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3819225013645979</v>
+        <v>0.3819225020308231</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-722.26970376448</v>
+        <v>-722.2697037639037</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001849377457916268</v>
+        <v>0.001849377457930186</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-52.22494944339577</v>
+        <v>-52.22494943859842</v>
       </c>
       <c r="C10" t="n">
-        <v>4.317354847762057e-07</v>
+        <v>4.317354854373509e-07</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>403.595141630207</v>
+        <v>403.5951415287245</v>
       </c>
       <c r="C11" t="n">
-        <v>4.537890925271352e-08</v>
+        <v>4.537890964484029e-08</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>250.917970440709</v>
+        <v>250.9179703636007</v>
       </c>
       <c r="C12" t="n">
-        <v>2.031039597461412e-16</v>
+        <v>2.03103965649998e-16</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.111474801597455</v>
+        <v>-11.14748015310971</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04853700147888995</v>
+        <v>0.04853700160371402</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.586541908168734e-05</v>
+        <v>-55.86541892787967</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04767783850576024</v>
+        <v>0.04767783904933647</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.352169356069645</v>
+        <v>5.352169356071587</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5947265218691171</v>
+        <v>0.5947265218689826</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1510.604281056705</v>
+        <v>-15.10604281056607</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2720270132911501</v>
+        <v>0.2720270132911813</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4037.974730754986</v>
+        <v>-40.37974730755035</v>
       </c>
       <c r="C17" t="n">
-        <v>1.267817106877542e-05</v>
+        <v>1.267817106877167e-05</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10929.35910322236</v>
+        <v>10929.35910177138</v>
       </c>
       <c r="C2" t="n">
-        <v>4.095113535892049e-05</v>
+        <v>4.095113572900607e-05</v>
       </c>
     </row>
     <row r="3">
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1807.399251905551</v>
+        <v>1807.399252391258</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3643112184092451</v>
+        <v>0.3643112184081668</v>
       </c>
     </row>
     <row r="4">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4183.173671033339</v>
+        <v>4183.173671389355</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02492504392062476</v>
+        <v>0.02492504393658725</v>
       </c>
     </row>
     <row r="5">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5159.264912635957</v>
+        <v>5159.264913054484</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005607666849665026</v>
+        <v>0.005607666856764446</v>
       </c>
     </row>
     <row r="6">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4207.178368885814</v>
+        <v>-4207.17836919905</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002224067457741039</v>
+        <v>0.002224067456055837</v>
       </c>
     </row>
     <row r="7">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3713.970267407395</v>
+        <v>-3713.970267667027</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006635301083750727</v>
+        <v>0.006635301079977606</v>
       </c>
     </row>
     <row r="8">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63.45019151040727</v>
+        <v>63.45019151416698</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4640966662946816</v>
+        <v>0.464096666268247</v>
       </c>
     </row>
     <row r="9">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-678.3845242905086</v>
+        <v>-678.3845242834859</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003374656944468159</v>
+        <v>0.003374656944773774</v>
       </c>
     </row>
     <row r="10">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-49.93305566151165</v>
+        <v>-49.93305566919012</v>
       </c>
       <c r="C10" t="n">
-        <v>1.054331424223302e-06</v>
+        <v>1.05433142134037e-06</v>
       </c>
     </row>
     <row r="11">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>475.8890767226719</v>
+        <v>475.8890766852404</v>
       </c>
       <c r="C11" t="n">
-        <v>1.641643635831339e-10</v>
+        <v>1.641643641652616e-10</v>
       </c>
     </row>
     <row r="12">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>270.5780290860424</v>
+        <v>270.5780290333682</v>
       </c>
       <c r="C12" t="n">
-        <v>8.793211401741868e-19</v>
+        <v>8.793211585211289e-19</v>
       </c>
     </row>
     <row r="13">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.1385279232108226</v>
+        <v>-13.85279232058068</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01369078986053402</v>
+        <v>0.01369078986376361</v>
       </c>
     </row>
     <row r="14">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.73386840529859e-05</v>
+        <v>-67.33868317651371</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02217217728884492</v>
+        <v>0.02217217901159773</v>
       </c>
     </row>
     <row r="15">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7.124973541726535</v>
+        <v>-7.124973541724875</v>
       </c>
       <c r="C15" t="n">
-        <v>0.480744005208643</v>
+        <v>0.480744005208747</v>
       </c>
     </row>
     <row r="16">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-973.4995144892208</v>
+        <v>-9.734995144892233</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4697283406471885</v>
+        <v>0.469728340647188</v>
       </c>
     </row>
     <row r="17">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4349.536317726182</v>
+        <v>-43.49536317725957</v>
       </c>
       <c r="C17" t="n">
-        <v>2.582715934722155e-06</v>
+        <v>2.582715934724994e-06</v>
       </c>
     </row>
   </sheetData>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9879.729322028938</v>
+        <v>9879.729322055748</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006608034341356715</v>
+        <v>0.0006608034339619773</v>
       </c>
     </row>
     <row r="3">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>887.7712499846408</v>
+        <v>887.7712500105096</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7006945478611626</v>
+        <v>0.7006945478601712</v>
       </c>
     </row>
     <row r="4">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3143.440964994156</v>
+        <v>3143.440964964601</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1526863088468421</v>
+        <v>0.1526863088371326</v>
       </c>
     </row>
     <row r="5">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4308.518240410782</v>
+        <v>4308.518240467123</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04973694917171735</v>
+        <v>0.04973694918315114</v>
       </c>
     </row>
     <row r="6">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4141.482259983952</v>
+        <v>-4141.482259985492</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002045456528452207</v>
+        <v>0.002045456528444565</v>
       </c>
     </row>
     <row r="7">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3671.308896398684</v>
+        <v>-3671.308896380096</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005979192520800981</v>
+        <v>0.005979192521051766</v>
       </c>
     </row>
     <row r="8">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69.67622270359212</v>
+        <v>69.67622262678255</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4191206075082959</v>
+        <v>0.4191206080233271</v>
       </c>
     </row>
     <row r="9">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-559.7596473903019</v>
+        <v>-559.7596473748717</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01693489047051805</v>
+        <v>0.01693489047307006</v>
       </c>
     </row>
     <row r="10">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-46.24307953281767</v>
+        <v>-46.24307953347922</v>
       </c>
       <c r="C10" t="n">
-        <v>8.065061960093008e-06</v>
+        <v>8.065061958739864e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>392.8167670289305</v>
+        <v>392.8167670591349</v>
       </c>
       <c r="C11" t="n">
-        <v>6.634725418498595e-08</v>
+        <v>6.63472539974272e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>234.9668106095907</v>
+        <v>234.966810563022</v>
       </c>
       <c r="C12" t="n">
-        <v>2.247584337622184e-14</v>
+        <v>2.247584377547678e-14</v>
       </c>
     </row>
     <row r="13">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.1170586261835765</v>
+        <v>-11.70586262165765</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03909633240003179</v>
+        <v>0.03909633234591876</v>
       </c>
     </row>
     <row r="14">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001133428237632005</v>
+        <v>-113.3428240934509</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001540346763155788</v>
+        <v>0.0001540346694728819</v>
       </c>
     </row>
     <row r="15">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.452034713317214</v>
+        <v>6.452034713318429</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5321012635750466</v>
+        <v>0.5321012635749679</v>
       </c>
     </row>
     <row r="16">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1631.888262136331</v>
+        <v>16.31888262136414</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2316904364814822</v>
+        <v>0.2316904364814591</v>
       </c>
     </row>
     <row r="17">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3437.755189965466</v>
+        <v>-34.37755189965463</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0002044470696980921</v>
+        <v>0.0002044470696981001</v>
       </c>
     </row>
   </sheetData>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8655.423287205898</v>
+        <v>8655.423288330298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001496645399674029</v>
+        <v>0.001496645393361283</v>
       </c>
     </row>
     <row r="3">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2021.547574206704</v>
+        <v>2021.547574480448</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3173827595703896</v>
+        <v>0.3173827595702695</v>
       </c>
     </row>
     <row r="4">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3956.089581267337</v>
+        <v>3956.089581597493</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03629428639026627</v>
+        <v>0.03629428640488606</v>
       </c>
     </row>
     <row r="5">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5192.449572469222</v>
+        <v>5192.449572616447</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005930889107819641</v>
+        <v>0.005930889110001085</v>
       </c>
     </row>
     <row r="6">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2910.698345158368</v>
+        <v>-2910.698345393598</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04374308725709869</v>
+        <v>0.04374308724008572</v>
       </c>
     </row>
     <row r="7">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2508.285786228974</v>
+        <v>-2508.285786448168</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08075710800081817</v>
+        <v>0.08075710797438153</v>
       </c>
     </row>
     <row r="8">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>68.79502086062823</v>
+        <v>68.79502086634741</v>
       </c>
       <c r="C8" t="n">
-        <v>0.430549792782186</v>
+        <v>0.430549792743989</v>
       </c>
     </row>
     <row r="9">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-682.6372724948924</v>
+        <v>-682.637272495092</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003615005464521706</v>
+        <v>0.003615005464512648</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-42.26508208232508</v>
+        <v>-42.265082081501</v>
       </c>
       <c r="C10" t="n">
-        <v>4.177428190788703e-05</v>
+        <v>4.177428191908802e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>426.0048258327693</v>
+        <v>426.0048258429197</v>
       </c>
       <c r="C11" t="n">
-        <v>8.572588913998392e-09</v>
+        <v>8.572588906386329e-09</v>
       </c>
     </row>
     <row r="12">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>223.8732215107936</v>
+        <v>223.8732214925299</v>
       </c>
       <c r="C12" t="n">
-        <v>3.999988264982717e-13</v>
+        <v>3.999988287225726e-13</v>
       </c>
     </row>
     <row r="13">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.1501057280334942</v>
+        <v>-15.01057280839087</v>
       </c>
       <c r="C13" t="n">
-        <v>0.008196098578959227</v>
+        <v>0.008196098558445853</v>
       </c>
     </row>
     <row r="14">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.787154069431471e-05</v>
+        <v>-67.87154136147302</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02447546573289783</v>
+        <v>0.02447546440980368</v>
       </c>
     </row>
     <row r="15">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.624059431869216</v>
+        <v>2.624059431868032</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8002972213430639</v>
+        <v>0.8002972213431536</v>
       </c>
     </row>
     <row r="16">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-601.0668115135857</v>
+        <v>-6.010668115135703</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6617614831289627</v>
+        <v>0.6617614831289707</v>
       </c>
     </row>
     <row r="17">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3884.516874908058</v>
+        <v>-38.84516874908196</v>
       </c>
       <c r="C17" t="n">
-        <v>2.842180934936492e-05</v>
+        <v>2.842180934934973e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8587.001377231321</v>
+        <v>8587.00137939243</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001318875485328288</v>
+        <v>0.001318875471618005</v>
       </c>
     </row>
     <row r="3">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1482.02181536434</v>
+        <v>1482.021815756869</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4569478187308719</v>
+        <v>0.4569478187315211</v>
       </c>
     </row>
     <row r="4">
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3975.773011150467</v>
+        <v>3975.773011642117</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03323478306866465</v>
+        <v>0.03323478310475744</v>
       </c>
     </row>
     <row r="5">
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4949.929706207204</v>
+        <v>4949.929706711264</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007956030633202585</v>
+        <v>0.00795603064792137</v>
       </c>
     </row>
     <row r="6">
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4074.494656060759</v>
+        <v>-4074.494655862136</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002592169751472584</v>
+        <v>0.002592169752722747</v>
       </c>
     </row>
     <row r="7">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3553.294650827018</v>
+        <v>-3553.294650663232</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00824254666884284</v>
+        <v>0.008242546671767933</v>
       </c>
     </row>
     <row r="8">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.396296713103951</v>
+        <v>-6.39629675635058</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9407553373886113</v>
+        <v>0.9407553369885879</v>
       </c>
     </row>
     <row r="9">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-874.3952358019999</v>
+        <v>-874.3952357938197</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001652888452716155</v>
+        <v>0.0001652888452922372</v>
       </c>
     </row>
     <row r="10">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-28.79836383087202</v>
+        <v>-28.79836383364515</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005245266552359037</v>
+        <v>0.005245266548951677</v>
       </c>
     </row>
     <row r="11">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>502.2352260280394</v>
+        <v>502.2352260005126</v>
       </c>
       <c r="C11" t="n">
-        <v>2.615311103150809e-12</v>
+        <v>2.615311110858393e-12</v>
       </c>
     </row>
     <row r="12">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>221.7691344821577</v>
+        <v>221.7691344362833</v>
       </c>
       <c r="C12" t="n">
-        <v>2.579116015275738e-13</v>
+        <v>2.579116055383792e-13</v>
       </c>
     </row>
     <row r="13">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.1436217324408769</v>
+        <v>-14.36217324066774</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01019330285735237</v>
+        <v>0.01019330287477833</v>
       </c>
     </row>
     <row r="14">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.500001641285406e-05</v>
+        <v>-65.00001689759105</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0204602065965831</v>
+        <v>0.02046020572628411</v>
       </c>
     </row>
     <row r="15">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.723579502464222</v>
+        <v>5.72357950246637</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5868501921325613</v>
+        <v>0.5868501921324194</v>
       </c>
     </row>
     <row r="16">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>945.7880243982943</v>
+        <v>9.457880243982885</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4878272353156612</v>
+        <v>0.4878272353156635</v>
       </c>
     </row>
     <row r="17">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3441.698465957162</v>
+        <v>-34.41698465957153</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001663059180127482</v>
+        <v>0.000166305918012752</v>
       </c>
     </row>
   </sheetData>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8003.193413721046</v>
+        <v>8003.193412981995</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002525689289701087</v>
+        <v>0.002525689297811334</v>
       </c>
     </row>
     <row r="3">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1508.060952233441</v>
+        <v>1508.060952638469</v>
       </c>
       <c r="C3" t="n">
-        <v>0.444491844724543</v>
+        <v>0.4444918447252784</v>
       </c>
     </row>
     <row r="4">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3933.574409671146</v>
+        <v>3933.574409882024</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03324858809390013</v>
+        <v>0.03324858810887034</v>
       </c>
     </row>
     <row r="5">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5250.968465982195</v>
+        <v>5250.968466226786</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00443086123027057</v>
+        <v>0.004430861234797378</v>
       </c>
     </row>
     <row r="6">
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3854.104820290284</v>
+        <v>-3854.104820298246</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00463551172154533</v>
+        <v>0.004635511721461065</v>
       </c>
     </row>
     <row r="7">
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3538.498936528417</v>
+        <v>-3538.498936524533</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008949856334193085</v>
+        <v>0.008949856334267857</v>
       </c>
     </row>
     <row r="8">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46.95339685862686</v>
+        <v>46.95339690738493</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5834807883382485</v>
+        <v>0.5834807879463746</v>
       </c>
     </row>
     <row r="9">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-652.5817473955523</v>
+        <v>-652.5817473872014</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004459952498228874</v>
+        <v>0.004459952498699645</v>
       </c>
     </row>
     <row r="10">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-51.29819354848442</v>
+        <v>-51.2981935713249</v>
       </c>
       <c r="C10" t="n">
-        <v>5.216416363073737e-07</v>
+        <v>5.21641632427621e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.9665552819139</v>
+        <v>374.9665553001036</v>
       </c>
       <c r="C11" t="n">
-        <v>1.210523051451283e-07</v>
+        <v>1.210523049631119e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>267.7427867263508</v>
+        <v>267.742786722023</v>
       </c>
       <c r="C12" t="n">
-        <v>4.718149413264203e-19</v>
+        <v>4.718149421816711e-19</v>
       </c>
     </row>
     <row r="13">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.1348538508039362</v>
+        <v>-13.48538507727954</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01597631397843681</v>
+        <v>0.01597631400197214</v>
       </c>
     </row>
     <row r="14">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.591481262586626e-05</v>
+        <v>-55.91481261792467</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04840185315481514</v>
+        <v>0.04840185317294242</v>
       </c>
     </row>
     <row r="15">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.39884133929066</v>
+        <v>20.39884133928998</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04804758240863256</v>
+        <v>0.04804758240863893</v>
       </c>
     </row>
     <row r="16">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-510.9907211510516</v>
+        <v>-5.109907211509098</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7024231124140311</v>
+        <v>0.7024231124141112</v>
       </c>
     </row>
     <row r="17">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3695.057427922176</v>
+        <v>-36.95057427922193</v>
       </c>
       <c r="C17" t="n">
-        <v>6.163693569400699e-05</v>
+        <v>6.163693569400248e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9827.518537201031</v>
+        <v>9827.518538606206</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007275811416530054</v>
+        <v>0.0007275811378066375</v>
       </c>
     </row>
     <row r="3">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2371.376830767129</v>
+        <v>2371.376830841268</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2751630474562854</v>
+        <v>0.2751630474567584</v>
       </c>
     </row>
     <row r="4">
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5049.074775029767</v>
+        <v>5049.074775034926</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01397332762918849</v>
+        <v>0.01397332762928881</v>
       </c>
     </row>
     <row r="5">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6227.011116772055</v>
+        <v>6227.011116677576</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002407380077234483</v>
+        <v>0.002407380076641295</v>
       </c>
     </row>
     <row r="6">
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6073.967072330591</v>
+        <v>-6073.96707227894</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001008379692739931</v>
+        <v>0.0001008379692876838</v>
       </c>
     </row>
     <row r="7">
@@ -1995,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5493.932607497203</v>
+        <v>-5493.932607453455</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0004094582762236377</v>
+        <v>0.0004094582762667311</v>
       </c>
     </row>
     <row r="8">
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-22.86310914441138</v>
+        <v>-22.86310923544679</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7879032675173107</v>
+        <v>0.7879032666933667</v>
       </c>
     </row>
     <row r="9">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-682.7567882514481</v>
+        <v>-682.7567882543497</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00283421197137023</v>
+        <v>0.002834211971255723</v>
       </c>
     </row>
     <row r="10">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-39.14650839857129</v>
+        <v>-39.14650840342155</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000113181245077257</v>
+        <v>0.0001131812448941709</v>
       </c>
     </row>
     <row r="11">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>492.5359471177584</v>
+        <v>492.5359471466655</v>
       </c>
       <c r="C11" t="n">
-        <v>8.400518057835386e-12</v>
+        <v>8.400518033187441e-12</v>
       </c>
     </row>
     <row r="12">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>233.0223263822163</v>
+        <v>233.0223263891492</v>
       </c>
       <c r="C12" t="n">
-        <v>7.088336921265195e-15</v>
+        <v>7.088336905459115e-15</v>
       </c>
     </row>
     <row r="13">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.08525274165173131</v>
+        <v>-8.525274185660587</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1298509336622782</v>
+        <v>0.1298509327598422</v>
       </c>
     </row>
     <row r="14">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.295414290696246e-05</v>
+        <v>-62.95414244863883</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02696186857562866</v>
+        <v>0.02696186963240777</v>
       </c>
     </row>
     <row r="15">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.203570675997771</v>
+        <v>9.203570675997188</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3562177053953515</v>
+        <v>0.3562177053953802</v>
       </c>
     </row>
     <row r="16">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1380.664975093714</v>
+        <v>-13.80664975093644</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3003591162662218</v>
+        <v>0.3003591162662468</v>
       </c>
     </row>
     <row r="17">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4255.456672724589</v>
+        <v>-42.55456672724524</v>
       </c>
       <c r="C17" t="n">
-        <v>2.948660069759136e-06</v>
+        <v>2.948660069760229e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2174,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9406.487679562202</v>
+        <v>9406.487682624189</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008914448171258324</v>
+        <v>0.0008914448069581786</v>
       </c>
     </row>
     <row r="3">
@@ -2187,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2394.234139479879</v>
+        <v>2394.234139574666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2689627750720742</v>
+        <v>0.2689627750719616</v>
       </c>
     </row>
     <row r="4">
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4728.512959992271</v>
+        <v>4728.512960484997</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01987254059563298</v>
+        <v>0.01987254060801595</v>
       </c>
     </row>
     <row r="5">
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5844.484072279531</v>
+        <v>5844.484072566806</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00395591014184364</v>
+        <v>0.003955910144383738</v>
       </c>
     </row>
     <row r="6">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3965.92349028968</v>
+        <v>-3965.923490516164</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006026083641743432</v>
+        <v>0.006026083638856304</v>
       </c>
     </row>
     <row r="7">
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3590.853772612483</v>
+        <v>-3590.853772742177</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01243229408285742</v>
+        <v>0.01243229407971326</v>
       </c>
     </row>
     <row r="8">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86.02513634172971</v>
+        <v>86.02513601428296</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3253182828206715</v>
+        <v>0.3253182846469107</v>
       </c>
     </row>
     <row r="9">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-791.9277697930679</v>
+        <v>-791.9277696971127</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0007458695278697193</v>
+        <v>0.0007458695288653271</v>
       </c>
     </row>
     <row r="10">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-48.6290637447744</v>
+        <v>-48.62906376592652</v>
       </c>
       <c r="C10" t="n">
-        <v>3.020876834590073e-06</v>
+        <v>3.02087681028271e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>448.2762389949948</v>
+        <v>448.2762389347554</v>
       </c>
       <c r="C11" t="n">
-        <v>8.276008329294523e-10</v>
+        <v>8.276008372340179e-10</v>
       </c>
     </row>
     <row r="12">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>239.6281175463633</v>
+        <v>239.6281174513604</v>
       </c>
       <c r="C12" t="n">
-        <v>5.256383052611509e-15</v>
+        <v>5.256383219175191e-15</v>
       </c>
     </row>
     <row r="13">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.138874596057412</v>
+        <v>-13.88745958185578</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01525158892405881</v>
+        <v>0.01525158909215725</v>
       </c>
     </row>
     <row r="14">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.74441353399595e-05</v>
+        <v>-57.44413559861852</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05170031759945738</v>
+        <v>0.0517003165250511</v>
       </c>
     </row>
     <row r="15">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3874612332487457</v>
+        <v>0.3874612332473832</v>
       </c>
       <c r="C15" t="n">
-        <v>0.971073927046757</v>
+        <v>0.9710739270468589</v>
       </c>
     </row>
     <row r="16">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-672.7633382203594</v>
+        <v>-6.727633382202126</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6289543194588421</v>
+        <v>0.6289543194589167</v>
       </c>
     </row>
     <row r="17">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4148.457839777642</v>
+        <v>-41.48457839777652</v>
       </c>
       <c r="C17" t="n">
-        <v>9.370165869646177e-06</v>
+        <v>9.370165869645222e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11614.66731952349</v>
+        <v>11614.66731917013</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001161333523067989</v>
+        <v>0.0001161333529565336</v>
       </c>
     </row>
     <row r="3">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>595.2548578667108</v>
+        <v>595.2548575881015</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8015570792635039</v>
+        <v>0.8015570792639561</v>
       </c>
     </row>
     <row r="4">
@@ -2444,10 +2444,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2641.785321098265</v>
+        <v>2641.785320816952</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2436675878453325</v>
+        <v>0.2436675876738292</v>
       </c>
     </row>
     <row r="5">
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3688.038649920831</v>
+        <v>3688.0386496348</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1033081941257167</v>
+        <v>0.103308193987491</v>
       </c>
     </row>
     <row r="6">
@@ -2470,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4284.025387772959</v>
+        <v>-4284.025387738474</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003670221673520272</v>
+        <v>0.003670221673776204</v>
       </c>
     </row>
     <row r="7">
@@ -2483,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3952.327290414087</v>
+        <v>-3952.327290391185</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007047508448409165</v>
+        <v>0.007047508448731461</v>
       </c>
     </row>
     <row r="8">
@@ -2496,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.13407577040736</v>
+        <v>48.13407583474141</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5776715860159123</v>
+        <v>0.5776715854993358</v>
       </c>
     </row>
     <row r="9">
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-531.2932166034971</v>
+        <v>-531.2932166057686</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02134800239472302</v>
+        <v>0.02134800239422303</v>
       </c>
     </row>
     <row r="10">
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-53.78625037352536</v>
+        <v>-53.78625037185446</v>
       </c>
       <c r="C10" t="n">
-        <v>1.40380346339146e-07</v>
+        <v>1.403803463378508e-07</v>
       </c>
     </row>
     <row r="11">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.5622591642515</v>
+        <v>390.562259161819</v>
       </c>
       <c r="C11" t="n">
-        <v>6.166108212507513e-08</v>
+        <v>6.166108213666333e-08</v>
       </c>
     </row>
     <row r="12">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>248.6262585100704</v>
+        <v>248.6262585298358</v>
       </c>
       <c r="C12" t="n">
-        <v>1.712849904964262e-16</v>
+        <v>1.712849886327286e-16</v>
       </c>
     </row>
     <row r="13">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.09838760240647218</v>
+        <v>-9.838760238704543</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07659700854677903</v>
+        <v>0.0765970086039004</v>
       </c>
     </row>
     <row r="14">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.518562327552968e-05</v>
+        <v>-65.18562321381525</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02173871126672567</v>
+        <v>0.02173871138691022</v>
       </c>
     </row>
     <row r="15">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.154764073284158</v>
+        <v>7.15476407328369</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4755564337149812</v>
+        <v>0.4755564337150091</v>
       </c>
     </row>
     <row r="16">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1421.423071086519</v>
+        <v>-14.21423071086548</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2926508624446199</v>
+        <v>0.2926508624446099</v>
       </c>
     </row>
     <row r="17">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4682.082041110527</v>
+        <v>-46.82082041110476</v>
       </c>
       <c r="C17" t="n">
-        <v>3.892503171350553e-07</v>
+        <v>3.89250317135182e-07</v>
       </c>
     </row>
   </sheetData>
